--- a/Kafr-El-Sheikh-El-7abeeba-MS1-P1-A.xlsx
+++ b/Kafr-El-Sheikh-El-7abeeba-MS1-P1-A.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="h8dJGZXk471dRn30I/svjyXsWCbTNCY87DME1Nf+TJo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Bw5qWyZop+VHQta3A+yNDp1bG6OXwoWm3xGx9aCxucQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
   <si>
     <t>Kafr El Sheikh El 7abeeba</t>
   </si>
@@ -106,13 +106,376 @@
   </si>
   <si>
     <t>So that</t>
+  </si>
+  <si>
+    <t>Intern Reports</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Write and view a free form feedback text</t>
+  </si>
+  <si>
+    <t>I can evaluate my experience</t>
+  </si>
+  <si>
+    <t>The intern should be able to go to the company's page to write a feedback about his/her experience as an intern there for other students to see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommend a company to other interns </t>
+  </si>
+  <si>
+    <t>They find the best choice</t>
+  </si>
+  <si>
+    <t>Mention courses that helped the most</t>
+  </si>
+  <si>
+    <t>Other students know them</t>
+  </si>
+  <si>
+    <t>An intern should be able to provide input on the faculty courses that helped them the most during the internship.</t>
+  </si>
+  <si>
+    <t>SCAD office</t>
+  </si>
+  <si>
+    <t>Publish a report template</t>
+  </si>
+  <si>
+    <t>Interns can view it and fill it</t>
+  </si>
+  <si>
+    <t>Find, fill and submit the internship report</t>
+  </si>
+  <si>
+    <t>I can submit it to the SCAD office</t>
+  </si>
+  <si>
+    <t>Receive the reports filled by interns</t>
+  </si>
+  <si>
+    <t>Review it</t>
+  </si>
+  <si>
+    <t>The SCAD office should review the report and decide then whether it is accepted or not.</t>
+  </si>
+  <si>
+    <t>Notify the intern of my decision</t>
+  </si>
+  <si>
+    <t>They know if their report was accepted or not</t>
+  </si>
+  <si>
+    <t>The intern should know whether the SCAD office accepted his/her report and counted the internship for him/her to be able to graduate.</t>
+  </si>
+  <si>
+    <t>View the SCAD office decision</t>
+  </si>
+  <si>
+    <t>I know whether my report is accepted</t>
+  </si>
+  <si>
+    <t>Internship Listings</t>
+  </si>
+  <si>
+    <t>Offer a way for students to view and apply for internships</t>
+  </si>
+  <si>
+    <t>Students can easily explore relevant internships</t>
+  </si>
+  <si>
+    <t>Search for internships related to my major by its abreviation or by the company's name</t>
+  </si>
+  <si>
+    <t>I can find internships in my field</t>
+  </si>
+  <si>
+    <t>View working conditions and qualifications of an internship</t>
+  </si>
+  <si>
+    <t>I can see if it matches my preferences and skills</t>
+  </si>
+  <si>
+    <t>Company/Faculty Academic</t>
+  </si>
+  <si>
+    <t>Send my internship offer to SCAD and be able to view, update, upload and remove it.</t>
+  </si>
+  <si>
+    <t>I can attract talented students from the GUC</t>
+  </si>
+  <si>
+    <t>Filter internships based on duration, major, payment, location, transportation and jop type</t>
+  </si>
+  <si>
+    <t>I can find internships that suit me best</t>
+  </si>
+  <si>
+    <t>View the internship applications sent from the companies</t>
+  </si>
+  <si>
+    <t>I can determine whether it meets our guidelines or not</t>
+  </si>
+  <si>
+    <t>Track and limit the number of applicants</t>
+  </si>
+  <si>
+    <t>I can later filter the applications fairly</t>
+  </si>
+  <si>
+    <t>Internship Applications</t>
+  </si>
+  <si>
+    <t>To upload my CV or necessary documents and submit my application</t>
+  </si>
+  <si>
+    <t>I can submit my application</t>
+  </si>
+  <si>
+    <t>Receive the students' application</t>
+  </si>
+  <si>
+    <t>I can review them</t>
+  </si>
+  <si>
+    <t>Provide feedback on the student's application</t>
+  </si>
+  <si>
+    <t>Students know if they are accepted or need to look somewhere else</t>
+  </si>
+  <si>
+    <t>Notify students about their internship application status</t>
+  </si>
+  <si>
+    <t>They stay informed</t>
+  </si>
+  <si>
+    <t>Notify the students about their interview date</t>
+  </si>
+  <si>
+    <t>They continue their application process</t>
+  </si>
+  <si>
+    <t>Recieve notifcations about my internship application status</t>
+  </si>
+  <si>
+    <t>So that I don't miss important updates</t>
+  </si>
+  <si>
+    <t>WIthdraw my internship application</t>
+  </si>
+  <si>
+    <t>I can apply to a different internship</t>
+  </si>
+  <si>
+    <t>Internship Listing</t>
+  </si>
+  <si>
+    <t>Receive a notification when a new internship is posted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't miss an opportunity </t>
+  </si>
+  <si>
+    <t>Internship Application</t>
+  </si>
+  <si>
+    <t>Send automated reminders for applications' deadline</t>
+  </si>
+  <si>
+    <t>Students can submit their applications on time</t>
+  </si>
+  <si>
+    <t>Faculty Academics</t>
+  </si>
+  <si>
+    <t>Post an internal internship or research through SCAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students can apply for the internships within the university </t>
+  </si>
+  <si>
+    <t>To be able to recommend reputable compaines to students</t>
+  </si>
+  <si>
+    <t>They can be productive during their vacations</t>
+  </si>
+  <si>
+    <t>Submit an internal internship application</t>
+  </si>
+  <si>
+    <t>gain research or academic experience</t>
+  </si>
+  <si>
+    <t>Notify students about internal internships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students don't miss a possible opportunity </t>
+  </si>
+  <si>
+    <t>Guide the students applying for internal internships</t>
+  </si>
+  <si>
+    <t>Students submit applications that match the faculty requirements</t>
+  </si>
+  <si>
+    <t>Receive notices about internal internships</t>
+  </si>
+  <si>
+    <t>Explore internships related to my major</t>
+  </si>
+  <si>
+    <t>Student Profiles and Customization</t>
+  </si>
+  <si>
+    <t>Student/Faculty Academics</t>
+  </si>
+  <si>
+    <t>Create a profile having my personal information</t>
+  </si>
+  <si>
+    <t>I can present myself professionally</t>
+  </si>
+  <si>
+    <t>Company Profiles and Customization</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Submit a request to the SCAD office to create a profile on the system</t>
+  </si>
+  <si>
+    <t>I can recruit interns from the GUC</t>
+  </si>
+  <si>
+    <t>Review requests sent by companies</t>
+  </si>
+  <si>
+    <t>Ensure they are real before granting them access to the system</t>
+  </si>
+  <si>
+    <t>Profiles and Customization</t>
+  </si>
+  <si>
+    <t>Student/Company/Faculty Academic</t>
+  </si>
+  <si>
+    <t>Login with my account</t>
+  </si>
+  <si>
+    <t>I can interact with the rest of profiles</t>
+  </si>
+  <si>
+    <t>Add my personal skills and job preferences</t>
+  </si>
+  <si>
+    <t>I can view more internships in my interest</t>
+  </si>
+  <si>
+    <t>Add my CV and links for my projects</t>
+  </si>
+  <si>
+    <t>The companies can view my experience</t>
+  </si>
+  <si>
+    <t>Know if any company viewed my profile</t>
+  </si>
+  <si>
+    <t>I can know if companies are interested in me</t>
+  </si>
+  <si>
+    <t>Add different posts</t>
+  </si>
+  <si>
+    <t>The engagement between the companies and the students will be improved</t>
+  </si>
+  <si>
+    <t>Interact with the posts</t>
+  </si>
+  <si>
+    <t>I can express my thoughts</t>
+  </si>
+  <si>
+    <t>Follow other profiles</t>
+  </si>
+  <si>
+    <t>I can view them</t>
+  </si>
+  <si>
+    <t>Add my website to the profile</t>
+  </si>
+  <si>
+    <t>The students can learn more about the company</t>
+  </si>
+  <si>
+    <t>Add my offered internship opportunities</t>
+  </si>
+  <si>
+    <t>I can attract the students in this field</t>
+  </si>
+  <si>
+    <t>See the statistics on how many students interacting with the company</t>
+  </si>
+  <si>
+    <t>I can know the attractiveness of the company</t>
+  </si>
+  <si>
+    <t>Write a brief overview of the field, misson and values</t>
+  </si>
+  <si>
+    <t>Students in the same field and have the same mission are attracted</t>
+  </si>
+  <si>
+    <t>Company Evaluations</t>
+  </si>
+  <si>
+    <t>Create and upload a form for student evaluation</t>
+  </si>
+  <si>
+    <t>I can ask for the company's evaluation on the intern</t>
+  </si>
+  <si>
+    <t>Evaluate the intern across several aspects and the assesment appears on the intern's page</t>
+  </si>
+  <si>
+    <t>Other companies see the intern's capabilities</t>
+  </si>
+  <si>
+    <t>Update the remaining internship quota</t>
+  </si>
+  <si>
+    <t>Keep track of students who still did not complete their quota</t>
+  </si>
+  <si>
+    <t>View the remaining GUC internship quota needed</t>
+  </si>
+  <si>
+    <t>I know how much more I need to fulfill the required internship quota</t>
+  </si>
+  <si>
+    <t>Track intern tasks</t>
+  </si>
+  <si>
+    <t>to help assess an intern in evaluation</t>
+  </si>
+  <si>
+    <t>Add a recommendation for outstanding interns</t>
+  </si>
+  <si>
+    <t>They are recognizable among others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -170,6 +533,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -197,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -305,10 +676,49 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -328,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -350,6 +760,9 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,39 +779,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -676,7 +1116,7 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>22.0</v>
       </c>
     </row>
@@ -1749,4629 +2189,5263 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="34.63"/>
     <col customWidth="1" min="2" max="2" width="31.0"/>
-    <col customWidth="1" min="3" max="3" width="18.25"/>
-    <col customWidth="1" min="4" max="4" width="20.63"/>
-    <col customWidth="1" min="5" max="6" width="35.63"/>
+    <col customWidth="1" min="3" max="3" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="29.13"/>
+    <col customWidth="1" min="5" max="5" width="78.25"/>
+    <col customWidth="1" min="6" max="6" width="62.88"/>
     <col customWidth="1" min="7" max="7" width="54.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" ht="39.0" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" ht="39.0" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="27"/>
+    <row r="5" ht="39.0" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="39.0" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24">
+        <f t="shared" ref="C6:C52" si="1">C5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" ht="39.0" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" ht="39.0" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="39.0" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="39.0" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" ht="39.0" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" ht="39.0" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" ht="39.0" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" ht="39.0" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" ht="39.0" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" ht="39.0" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" ht="39.0" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="C17" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" ht="39.0" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" ht="39.0" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="C19" s="24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" ht="39.0" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="22">
+        <v>16.0</v>
+      </c>
+      <c r="C20" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" ht="39.0" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="28">
+        <v>16.0</v>
+      </c>
+      <c r="C21" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" ht="39.0" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="31">
+        <v>19.0</v>
+      </c>
+      <c r="C22" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" ht="39.0" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="31">
+        <v>16.0</v>
+      </c>
+      <c r="C23" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" ht="39.0" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="22">
+        <v>16.0</v>
+      </c>
+      <c r="C24" s="24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" ht="39.0" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" ht="39.0" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" ht="39.0" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" ht="39.0" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" ht="39.0" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C29" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" ht="39.0" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" ht="39.0" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C31" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" ht="39.0" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="C32" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" ht="39.0" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" ht="39.0" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="24">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" ht="39.0" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="24">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" ht="39.0" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C36" s="24">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" ht="39.0" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C37" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" ht="39.0" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C38" s="24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" ht="39.0" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C39" s="24">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" ht="39.0" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C40" s="24">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" ht="39.0" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="24">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" ht="39.0" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C42" s="24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" ht="39.0" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="C43" s="24">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" ht="39.0" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C44" s="24">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" ht="39.0" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="22">
+        <v>39.0</v>
+      </c>
+      <c r="C45" s="24">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" ht="39.0" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C46" s="24">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" ht="39.0" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" ht="39.0" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="22">
+        <v>45.0</v>
+      </c>
+      <c r="C48" s="24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" ht="39.0" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="24">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" ht="39.0" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="22">
+        <v>47.0</v>
+      </c>
+      <c r="C50" s="24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" ht="39.0" customHeight="1">
+      <c r="A51" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="22">
+        <v>42.0</v>
+      </c>
+      <c r="C51" s="24">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" ht="39.0" customHeight="1">
+      <c r="A52" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="C52" s="24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="27"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="27"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="27"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="27"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="27"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="27"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="27"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="27"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="27"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="27"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="27"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="27"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="27"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="27"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="27"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="37"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="27"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="27"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="27"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="27"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="27"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="27"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="27"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="27"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="37"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="27"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="37"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="27"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="37"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="27"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="37"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="27"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="37"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="27"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="37"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="27"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="37"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="27"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="37"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="27"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="37"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="27"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="37"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="27"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="37"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="27"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="37"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="27"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="37"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="27"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="37"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="27"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="37"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="27"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="27"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="27"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="37"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="27"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="37"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="27"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="37"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="27"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="37"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="27"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="37"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="27"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="37"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="27"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="37"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="27"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="37"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="27"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="37"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="27"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="37"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="27"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="37"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="27"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="37"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="27"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="37"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="27"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="37"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="27"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="37"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="27"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="37"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="27"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="37"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="27"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="37"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="27"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="37"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="27"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="37"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="27"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="37"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="27"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="37"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="27"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="37"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="27"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="37"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="27"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="37"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="27"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="37"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="27"/>
+      <c r="D119" s="36"/>
+      <c r="G119" s="38"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="27"/>
+      <c r="D120" s="36"/>
+      <c r="G120" s="38"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="26"/>
-      <c r="G121" s="28"/>
+      <c r="D121" s="36"/>
+      <c r="G121" s="38"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="26"/>
-      <c r="G122" s="28"/>
+      <c r="D122" s="36"/>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="26"/>
-      <c r="G123" s="28"/>
+      <c r="D123" s="36"/>
+      <c r="G123" s="38"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="26"/>
-      <c r="G124" s="28"/>
+      <c r="D124" s="36"/>
+      <c r="G124" s="38"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="26"/>
-      <c r="G125" s="28"/>
+      <c r="D125" s="36"/>
+      <c r="G125" s="38"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="26"/>
-      <c r="G126" s="28"/>
+      <c r="D126" s="36"/>
+      <c r="G126" s="38"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="26"/>
-      <c r="G127" s="28"/>
+      <c r="D127" s="36"/>
+      <c r="G127" s="38"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="26"/>
-      <c r="G128" s="28"/>
+      <c r="D128" s="36"/>
+      <c r="G128" s="38"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="26"/>
-      <c r="G129" s="28"/>
+      <c r="D129" s="36"/>
+      <c r="G129" s="38"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="26"/>
-      <c r="G130" s="28"/>
+      <c r="D130" s="36"/>
+      <c r="G130" s="38"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="26"/>
-      <c r="G131" s="28"/>
+      <c r="D131" s="36"/>
+      <c r="G131" s="38"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="26"/>
-      <c r="G132" s="28"/>
+      <c r="D132" s="36"/>
+      <c r="G132" s="38"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="26"/>
-      <c r="G133" s="28"/>
+      <c r="D133" s="36"/>
+      <c r="G133" s="38"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="26"/>
-      <c r="G134" s="28"/>
+      <c r="D134" s="36"/>
+      <c r="G134" s="38"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="26"/>
-      <c r="G135" s="28"/>
+      <c r="D135" s="36"/>
+      <c r="G135" s="38"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="26"/>
-      <c r="G136" s="28"/>
+      <c r="D136" s="36"/>
+      <c r="G136" s="38"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="26"/>
-      <c r="G137" s="28"/>
+      <c r="D137" s="36"/>
+      <c r="G137" s="38"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="26"/>
-      <c r="G138" s="28"/>
+      <c r="D138" s="36"/>
+      <c r="G138" s="38"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="26"/>
-      <c r="G139" s="28"/>
+      <c r="D139" s="36"/>
+      <c r="G139" s="38"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="26"/>
-      <c r="G140" s="28"/>
+      <c r="D140" s="36"/>
+      <c r="G140" s="38"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="26"/>
-      <c r="G141" s="28"/>
+      <c r="D141" s="36"/>
+      <c r="G141" s="38"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="26"/>
-      <c r="G142" s="28"/>
+      <c r="D142" s="36"/>
+      <c r="G142" s="38"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="26"/>
-      <c r="G143" s="28"/>
+      <c r="D143" s="36"/>
+      <c r="G143" s="38"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="26"/>
-      <c r="G144" s="28"/>
+      <c r="D144" s="36"/>
+      <c r="G144" s="38"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="26"/>
-      <c r="G145" s="28"/>
+      <c r="D145" s="36"/>
+      <c r="G145" s="38"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="26"/>
-      <c r="G146" s="28"/>
+      <c r="D146" s="36"/>
+      <c r="G146" s="38"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="26"/>
-      <c r="G147" s="28"/>
+      <c r="D147" s="36"/>
+      <c r="G147" s="38"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="26"/>
-      <c r="G148" s="28"/>
+      <c r="D148" s="36"/>
+      <c r="G148" s="38"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="26"/>
-      <c r="G149" s="28"/>
+      <c r="D149" s="36"/>
+      <c r="G149" s="38"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="26"/>
-      <c r="G150" s="28"/>
+      <c r="D150" s="36"/>
+      <c r="G150" s="38"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="26"/>
-      <c r="G151" s="28"/>
+      <c r="D151" s="36"/>
+      <c r="G151" s="38"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="26"/>
-      <c r="G152" s="28"/>
+      <c r="D152" s="36"/>
+      <c r="G152" s="38"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="26"/>
-      <c r="G153" s="28"/>
+      <c r="D153" s="36"/>
+      <c r="G153" s="38"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="26"/>
-      <c r="G154" s="28"/>
+      <c r="D154" s="36"/>
+      <c r="G154" s="38"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="26"/>
-      <c r="G155" s="28"/>
+      <c r="D155" s="36"/>
+      <c r="G155" s="38"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="26"/>
-      <c r="G156" s="28"/>
+      <c r="D156" s="36"/>
+      <c r="G156" s="38"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="26"/>
-      <c r="G157" s="28"/>
+      <c r="D157" s="36"/>
+      <c r="G157" s="38"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="26"/>
-      <c r="G158" s="28"/>
+      <c r="D158" s="36"/>
+      <c r="G158" s="38"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="26"/>
-      <c r="G159" s="28"/>
+      <c r="D159" s="36"/>
+      <c r="G159" s="38"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="26"/>
-      <c r="G160" s="28"/>
+      <c r="D160" s="36"/>
+      <c r="G160" s="38"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="26"/>
-      <c r="G161" s="28"/>
+      <c r="D161" s="36"/>
+      <c r="G161" s="38"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="26"/>
-      <c r="G162" s="28"/>
+      <c r="D162" s="36"/>
+      <c r="G162" s="38"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="26"/>
-      <c r="G163" s="28"/>
+      <c r="D163" s="36"/>
+      <c r="G163" s="38"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="26"/>
-      <c r="G164" s="28"/>
+      <c r="D164" s="36"/>
+      <c r="G164" s="38"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="26"/>
-      <c r="G165" s="28"/>
+      <c r="D165" s="36"/>
+      <c r="G165" s="38"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="26"/>
-      <c r="G166" s="28"/>
+      <c r="D166" s="36"/>
+      <c r="G166" s="38"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="26"/>
-      <c r="G167" s="28"/>
+      <c r="D167" s="36"/>
+      <c r="G167" s="38"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="26"/>
-      <c r="G168" s="28"/>
+      <c r="D168" s="36"/>
+      <c r="G168" s="38"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="26"/>
-      <c r="G169" s="28"/>
+      <c r="D169" s="36"/>
+      <c r="G169" s="38"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="26"/>
-      <c r="G170" s="28"/>
+      <c r="D170" s="36"/>
+      <c r="G170" s="38"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="26"/>
-      <c r="G171" s="28"/>
+      <c r="D171" s="36"/>
+      <c r="G171" s="38"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="26"/>
-      <c r="G172" s="28"/>
+      <c r="D172" s="36"/>
+      <c r="G172" s="38"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="26"/>
-      <c r="G173" s="28"/>
+      <c r="D173" s="36"/>
+      <c r="G173" s="38"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="26"/>
-      <c r="G174" s="28"/>
+      <c r="D174" s="36"/>
+      <c r="G174" s="38"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="26"/>
-      <c r="G175" s="28"/>
+      <c r="D175" s="36"/>
+      <c r="G175" s="38"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="26"/>
-      <c r="G176" s="28"/>
+      <c r="D176" s="36"/>
+      <c r="G176" s="38"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="26"/>
-      <c r="G177" s="28"/>
+      <c r="D177" s="36"/>
+      <c r="G177" s="38"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="26"/>
-      <c r="G178" s="28"/>
+      <c r="D178" s="36"/>
+      <c r="G178" s="38"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="26"/>
-      <c r="G179" s="28"/>
+      <c r="D179" s="36"/>
+      <c r="G179" s="38"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="26"/>
-      <c r="G180" s="28"/>
+      <c r="D180" s="36"/>
+      <c r="G180" s="38"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="26"/>
-      <c r="G181" s="28"/>
+      <c r="D181" s="36"/>
+      <c r="G181" s="38"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="26"/>
-      <c r="G182" s="28"/>
+      <c r="D182" s="36"/>
+      <c r="G182" s="38"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="26"/>
-      <c r="G183" s="28"/>
+      <c r="D183" s="36"/>
+      <c r="G183" s="38"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="26"/>
-      <c r="G184" s="28"/>
+      <c r="D184" s="36"/>
+      <c r="G184" s="38"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="26"/>
-      <c r="G185" s="28"/>
+      <c r="D185" s="36"/>
+      <c r="G185" s="38"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="26"/>
-      <c r="G186" s="28"/>
+      <c r="D186" s="36"/>
+      <c r="G186" s="38"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="26"/>
-      <c r="G187" s="28"/>
+      <c r="D187" s="36"/>
+      <c r="G187" s="38"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="26"/>
-      <c r="G188" s="28"/>
+      <c r="D188" s="36"/>
+      <c r="G188" s="38"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="26"/>
-      <c r="G189" s="28"/>
+      <c r="D189" s="36"/>
+      <c r="G189" s="38"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="26"/>
-      <c r="G190" s="28"/>
+      <c r="D190" s="36"/>
+      <c r="G190" s="38"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="26"/>
-      <c r="G191" s="28"/>
+      <c r="D191" s="36"/>
+      <c r="G191" s="38"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="26"/>
-      <c r="G192" s="28"/>
+      <c r="D192" s="36"/>
+      <c r="G192" s="38"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="26"/>
-      <c r="G193" s="28"/>
+      <c r="D193" s="36"/>
+      <c r="G193" s="38"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="26"/>
-      <c r="G194" s="28"/>
+      <c r="D194" s="36"/>
+      <c r="G194" s="38"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="26"/>
-      <c r="G195" s="28"/>
+      <c r="D195" s="36"/>
+      <c r="G195" s="38"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="26"/>
-      <c r="G196" s="28"/>
+      <c r="D196" s="36"/>
+      <c r="G196" s="38"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="26"/>
-      <c r="G197" s="28"/>
+      <c r="D197" s="36"/>
+      <c r="G197" s="38"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="26"/>
-      <c r="G198" s="28"/>
+      <c r="D198" s="36"/>
+      <c r="G198" s="38"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="26"/>
-      <c r="G199" s="28"/>
+      <c r="D199" s="36"/>
+      <c r="G199" s="38"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="26"/>
-      <c r="G200" s="28"/>
+      <c r="D200" s="36"/>
+      <c r="G200" s="38"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="26"/>
-      <c r="G201" s="28"/>
+      <c r="D201" s="36"/>
+      <c r="G201" s="38"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="26"/>
-      <c r="G202" s="28"/>
+      <c r="D202" s="36"/>
+      <c r="G202" s="38"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="26"/>
-      <c r="G203" s="28"/>
+      <c r="D203" s="36"/>
+      <c r="G203" s="38"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="26"/>
-      <c r="G204" s="28"/>
+      <c r="D204" s="36"/>
+      <c r="G204" s="38"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="26"/>
-      <c r="G205" s="28"/>
+      <c r="D205" s="36"/>
+      <c r="G205" s="38"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="26"/>
-      <c r="G206" s="28"/>
+      <c r="D206" s="36"/>
+      <c r="G206" s="38"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="26"/>
-      <c r="G207" s="28"/>
+      <c r="D207" s="36"/>
+      <c r="G207" s="38"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="26"/>
-      <c r="G208" s="28"/>
+      <c r="D208" s="36"/>
+      <c r="G208" s="38"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="26"/>
-      <c r="G209" s="28"/>
+      <c r="D209" s="36"/>
+      <c r="G209" s="38"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="26"/>
-      <c r="G210" s="28"/>
+      <c r="D210" s="36"/>
+      <c r="G210" s="38"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="26"/>
-      <c r="G211" s="28"/>
+      <c r="D211" s="36"/>
+      <c r="G211" s="38"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="26"/>
-      <c r="G212" s="28"/>
+      <c r="D212" s="36"/>
+      <c r="G212" s="38"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="26"/>
-      <c r="G213" s="28"/>
+      <c r="D213" s="36"/>
+      <c r="G213" s="38"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="26"/>
-      <c r="G214" s="28"/>
+      <c r="D214" s="36"/>
+      <c r="G214" s="38"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="26"/>
-      <c r="G215" s="28"/>
+      <c r="D215" s="36"/>
+      <c r="G215" s="38"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="26"/>
-      <c r="G216" s="28"/>
+      <c r="D216" s="36"/>
+      <c r="G216" s="38"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="26"/>
-      <c r="G217" s="28"/>
+      <c r="D217" s="36"/>
+      <c r="G217" s="38"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="26"/>
-      <c r="G218" s="28"/>
+      <c r="D218" s="36"/>
+      <c r="G218" s="38"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="26"/>
-      <c r="G219" s="28"/>
+      <c r="D219" s="36"/>
+      <c r="G219" s="38"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="26"/>
-      <c r="G220" s="28"/>
+      <c r="D220" s="36"/>
+      <c r="G220" s="38"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="26"/>
-      <c r="G221" s="28"/>
+      <c r="D221" s="36"/>
+      <c r="G221" s="38"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="26"/>
-      <c r="G222" s="28"/>
+      <c r="D222" s="36"/>
+      <c r="G222" s="38"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="26"/>
-      <c r="G223" s="28"/>
+      <c r="D223" s="36"/>
+      <c r="G223" s="38"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="26"/>
-      <c r="G224" s="28"/>
+      <c r="D224" s="36"/>
+      <c r="G224" s="38"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="26"/>
-      <c r="G225" s="28"/>
+      <c r="D225" s="36"/>
+      <c r="G225" s="38"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="26"/>
-      <c r="G226" s="28"/>
+      <c r="D226" s="36"/>
+      <c r="G226" s="38"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="26"/>
-      <c r="G227" s="28"/>
+      <c r="D227" s="36"/>
+      <c r="G227" s="38"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="26"/>
-      <c r="G228" s="28"/>
+      <c r="D228" s="36"/>
+      <c r="G228" s="38"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="26"/>
-      <c r="G229" s="28"/>
+      <c r="D229" s="36"/>
+      <c r="G229" s="38"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="26"/>
-      <c r="G230" s="28"/>
+      <c r="D230" s="36"/>
+      <c r="G230" s="38"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="26"/>
-      <c r="G231" s="28"/>
+      <c r="D231" s="36"/>
+      <c r="G231" s="38"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="26"/>
-      <c r="G232" s="28"/>
+      <c r="D232" s="36"/>
+      <c r="G232" s="38"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="26"/>
-      <c r="G233" s="28"/>
+      <c r="D233" s="36"/>
+      <c r="G233" s="38"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="26"/>
-      <c r="G234" s="28"/>
+      <c r="D234" s="36"/>
+      <c r="G234" s="38"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="26"/>
-      <c r="G235" s="28"/>
+      <c r="D235" s="36"/>
+      <c r="G235" s="38"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="26"/>
-      <c r="G236" s="28"/>
+      <c r="D236" s="36"/>
+      <c r="G236" s="38"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="26"/>
-      <c r="G237" s="28"/>
+      <c r="D237" s="36"/>
+      <c r="G237" s="38"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="26"/>
-      <c r="G238" s="28"/>
+      <c r="D238" s="36"/>
+      <c r="G238" s="38"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="26"/>
-      <c r="G239" s="28"/>
+      <c r="D239" s="36"/>
+      <c r="G239" s="38"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="26"/>
-      <c r="G240" s="28"/>
+      <c r="D240" s="36"/>
+      <c r="G240" s="38"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="26"/>
-      <c r="G241" s="28"/>
+      <c r="D241" s="36"/>
+      <c r="G241" s="38"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="26"/>
-      <c r="G242" s="28"/>
+      <c r="D242" s="36"/>
+      <c r="G242" s="38"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="26"/>
-      <c r="G243" s="28"/>
+      <c r="D243" s="36"/>
+      <c r="G243" s="38"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="26"/>
-      <c r="G244" s="28"/>
+      <c r="D244" s="36"/>
+      <c r="G244" s="38"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="26"/>
-      <c r="G245" s="28"/>
+      <c r="D245" s="36"/>
+      <c r="G245" s="38"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="26"/>
-      <c r="G246" s="28"/>
+      <c r="D246" s="36"/>
+      <c r="G246" s="38"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="26"/>
-      <c r="G247" s="28"/>
+      <c r="D247" s="36"/>
+      <c r="G247" s="38"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="26"/>
-      <c r="G248" s="28"/>
+      <c r="D248" s="36"/>
+      <c r="G248" s="38"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="26"/>
-      <c r="G249" s="28"/>
+      <c r="D249" s="36"/>
+      <c r="G249" s="38"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="26"/>
-      <c r="G250" s="28"/>
+      <c r="D250" s="36"/>
+      <c r="G250" s="38"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="26"/>
-      <c r="G251" s="28"/>
+      <c r="D251" s="36"/>
+      <c r="G251" s="38"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="26"/>
-      <c r="G252" s="28"/>
+      <c r="D252" s="36"/>
+      <c r="G252" s="38"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="26"/>
-      <c r="G253" s="28"/>
+      <c r="D253" s="36"/>
+      <c r="G253" s="38"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="26"/>
-      <c r="G254" s="28"/>
+      <c r="D254" s="36"/>
+      <c r="G254" s="38"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="26"/>
-      <c r="G255" s="28"/>
+      <c r="D255" s="36"/>
+      <c r="G255" s="38"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="26"/>
-      <c r="G256" s="28"/>
+      <c r="D256" s="36"/>
+      <c r="G256" s="38"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="26"/>
-      <c r="G257" s="28"/>
+      <c r="D257" s="36"/>
+      <c r="G257" s="38"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="26"/>
-      <c r="G258" s="28"/>
+      <c r="D258" s="36"/>
+      <c r="G258" s="38"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="26"/>
-      <c r="G259" s="28"/>
+      <c r="D259" s="36"/>
+      <c r="G259" s="38"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="26"/>
-      <c r="G260" s="28"/>
+      <c r="D260" s="36"/>
+      <c r="G260" s="38"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="26"/>
-      <c r="G261" s="28"/>
+      <c r="D261" s="36"/>
+      <c r="G261" s="38"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="26"/>
-      <c r="G262" s="28"/>
+      <c r="D262" s="36"/>
+      <c r="G262" s="38"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="26"/>
-      <c r="G263" s="28"/>
+      <c r="D263" s="36"/>
+      <c r="G263" s="38"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="26"/>
-      <c r="G264" s="28"/>
+      <c r="D264" s="36"/>
+      <c r="G264" s="38"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="26"/>
-      <c r="G265" s="28"/>
+      <c r="D265" s="36"/>
+      <c r="G265" s="38"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="26"/>
-      <c r="G266" s="28"/>
+      <c r="D266" s="36"/>
+      <c r="G266" s="38"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="26"/>
-      <c r="G267" s="28"/>
+      <c r="D267" s="36"/>
+      <c r="G267" s="38"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="26"/>
-      <c r="G268" s="28"/>
+      <c r="D268" s="36"/>
+      <c r="G268" s="38"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="26"/>
-      <c r="G269" s="28"/>
+      <c r="D269" s="36"/>
+      <c r="G269" s="38"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="26"/>
-      <c r="G270" s="28"/>
+      <c r="D270" s="36"/>
+      <c r="G270" s="38"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="26"/>
-      <c r="G271" s="28"/>
+      <c r="D271" s="36"/>
+      <c r="G271" s="38"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="26"/>
-      <c r="G272" s="28"/>
+      <c r="D272" s="36"/>
+      <c r="G272" s="38"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="26"/>
-      <c r="G273" s="28"/>
+      <c r="D273" s="36"/>
+      <c r="G273" s="38"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="26"/>
-      <c r="G274" s="28"/>
+      <c r="D274" s="36"/>
+      <c r="G274" s="38"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="26"/>
-      <c r="G275" s="28"/>
+      <c r="D275" s="36"/>
+      <c r="G275" s="38"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="26"/>
-      <c r="G276" s="28"/>
+      <c r="D276" s="36"/>
+      <c r="G276" s="38"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="26"/>
-      <c r="G277" s="28"/>
+      <c r="D277" s="36"/>
+      <c r="G277" s="38"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="26"/>
-      <c r="G278" s="28"/>
+      <c r="D278" s="36"/>
+      <c r="G278" s="38"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="26"/>
-      <c r="G279" s="28"/>
+      <c r="D279" s="36"/>
+      <c r="G279" s="38"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="26"/>
-      <c r="G280" s="28"/>
+      <c r="D280" s="36"/>
+      <c r="G280" s="38"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="26"/>
-      <c r="G281" s="28"/>
+      <c r="D281" s="36"/>
+      <c r="G281" s="38"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="26"/>
-      <c r="G282" s="28"/>
+      <c r="D282" s="36"/>
+      <c r="G282" s="38"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="26"/>
-      <c r="G283" s="28"/>
+      <c r="D283" s="36"/>
+      <c r="G283" s="38"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="26"/>
-      <c r="G284" s="28"/>
+      <c r="D284" s="36"/>
+      <c r="G284" s="38"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="26"/>
-      <c r="G285" s="28"/>
+      <c r="D285" s="36"/>
+      <c r="G285" s="38"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="26"/>
-      <c r="G286" s="28"/>
+      <c r="D286" s="36"/>
+      <c r="G286" s="38"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="26"/>
-      <c r="G287" s="28"/>
+      <c r="D287" s="36"/>
+      <c r="G287" s="38"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="26"/>
-      <c r="G288" s="28"/>
+      <c r="D288" s="36"/>
+      <c r="G288" s="38"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="26"/>
-      <c r="G289" s="28"/>
+      <c r="D289" s="36"/>
+      <c r="G289" s="38"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="26"/>
-      <c r="G290" s="28"/>
+      <c r="D290" s="36"/>
+      <c r="G290" s="38"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="26"/>
-      <c r="G291" s="28"/>
+      <c r="D291" s="36"/>
+      <c r="G291" s="38"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="26"/>
-      <c r="G292" s="28"/>
+      <c r="D292" s="36"/>
+      <c r="G292" s="38"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="26"/>
-      <c r="G293" s="28"/>
+      <c r="D293" s="36"/>
+      <c r="G293" s="38"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="26"/>
-      <c r="G294" s="28"/>
+      <c r="D294" s="36"/>
+      <c r="G294" s="38"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="26"/>
-      <c r="G295" s="28"/>
+      <c r="D295" s="36"/>
+      <c r="G295" s="38"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="26"/>
-      <c r="G296" s="28"/>
+      <c r="D296" s="36"/>
+      <c r="G296" s="38"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="26"/>
-      <c r="G297" s="28"/>
+      <c r="D297" s="36"/>
+      <c r="G297" s="38"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="26"/>
-      <c r="G298" s="28"/>
+      <c r="D298" s="36"/>
+      <c r="G298" s="38"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="26"/>
-      <c r="G299" s="28"/>
+      <c r="D299" s="36"/>
+      <c r="G299" s="38"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="26"/>
-      <c r="G300" s="28"/>
+      <c r="D300" s="36"/>
+      <c r="G300" s="38"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="26"/>
-      <c r="G301" s="28"/>
+      <c r="D301" s="36"/>
+      <c r="G301" s="38"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="26"/>
-      <c r="G302" s="28"/>
+      <c r="D302" s="36"/>
+      <c r="G302" s="38"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="26"/>
-      <c r="G303" s="28"/>
+      <c r="D303" s="36"/>
+      <c r="G303" s="38"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="26"/>
-      <c r="G304" s="28"/>
+      <c r="D304" s="36"/>
+      <c r="G304" s="38"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="26"/>
-      <c r="G305" s="28"/>
+      <c r="D305" s="36"/>
+      <c r="G305" s="38"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="26"/>
-      <c r="G306" s="28"/>
+      <c r="D306" s="36"/>
+      <c r="G306" s="38"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="26"/>
-      <c r="G307" s="28"/>
+      <c r="D307" s="36"/>
+      <c r="G307" s="38"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="26"/>
-      <c r="G308" s="28"/>
+      <c r="D308" s="36"/>
+      <c r="G308" s="38"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="26"/>
-      <c r="G309" s="28"/>
+      <c r="D309" s="36"/>
+      <c r="G309" s="38"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="26"/>
-      <c r="G310" s="28"/>
+      <c r="D310" s="36"/>
+      <c r="G310" s="38"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="26"/>
-      <c r="G311" s="28"/>
+      <c r="D311" s="36"/>
+      <c r="G311" s="38"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="26"/>
-      <c r="G312" s="28"/>
+      <c r="D312" s="36"/>
+      <c r="G312" s="38"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="26"/>
-      <c r="G313" s="28"/>
+      <c r="D313" s="36"/>
+      <c r="G313" s="38"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="26"/>
-      <c r="G314" s="28"/>
+      <c r="D314" s="36"/>
+      <c r="G314" s="38"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="26"/>
-      <c r="G315" s="28"/>
+      <c r="D315" s="36"/>
+      <c r="G315" s="38"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="26"/>
-      <c r="G316" s="28"/>
+      <c r="D316" s="36"/>
+      <c r="G316" s="38"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="26"/>
-      <c r="G317" s="28"/>
+      <c r="D317" s="36"/>
+      <c r="G317" s="38"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="26"/>
-      <c r="G318" s="28"/>
+      <c r="D318" s="36"/>
+      <c r="G318" s="38"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="26"/>
-      <c r="G319" s="28"/>
+      <c r="D319" s="36"/>
+      <c r="G319" s="38"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="26"/>
-      <c r="G320" s="28"/>
+      <c r="D320" s="36"/>
+      <c r="G320" s="38"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="26"/>
-      <c r="G321" s="28"/>
+      <c r="D321" s="36"/>
+      <c r="G321" s="38"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="26"/>
-      <c r="G322" s="28"/>
+      <c r="D322" s="36"/>
+      <c r="G322" s="38"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="26"/>
-      <c r="G323" s="28"/>
+      <c r="D323" s="36"/>
+      <c r="G323" s="38"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="26"/>
-      <c r="G324" s="28"/>
+      <c r="D324" s="36"/>
+      <c r="G324" s="38"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="26"/>
-      <c r="G325" s="28"/>
+      <c r="D325" s="36"/>
+      <c r="G325" s="38"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="26"/>
-      <c r="G326" s="28"/>
+      <c r="D326" s="36"/>
+      <c r="G326" s="38"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="26"/>
-      <c r="G327" s="28"/>
+      <c r="D327" s="36"/>
+      <c r="G327" s="38"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="26"/>
-      <c r="G328" s="28"/>
+      <c r="D328" s="36"/>
+      <c r="G328" s="38"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="26"/>
-      <c r="G329" s="28"/>
+      <c r="D329" s="36"/>
+      <c r="G329" s="38"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="26"/>
-      <c r="G330" s="28"/>
+      <c r="D330" s="36"/>
+      <c r="G330" s="38"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="26"/>
-      <c r="G331" s="28"/>
+      <c r="D331" s="36"/>
+      <c r="G331" s="38"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="26"/>
-      <c r="G332" s="28"/>
+      <c r="D332" s="36"/>
+      <c r="G332" s="38"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="26"/>
-      <c r="G333" s="28"/>
+      <c r="D333" s="36"/>
+      <c r="G333" s="38"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="26"/>
-      <c r="G334" s="28"/>
+      <c r="D334" s="36"/>
+      <c r="G334" s="38"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="26"/>
-      <c r="G335" s="28"/>
+      <c r="D335" s="36"/>
+      <c r="G335" s="38"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="26"/>
-      <c r="G336" s="28"/>
+      <c r="D336" s="36"/>
+      <c r="G336" s="38"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="26"/>
-      <c r="G337" s="28"/>
+      <c r="D337" s="36"/>
+      <c r="G337" s="38"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="26"/>
-      <c r="G338" s="28"/>
+      <c r="D338" s="36"/>
+      <c r="G338" s="38"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="26"/>
-      <c r="G339" s="28"/>
+      <c r="D339" s="36"/>
+      <c r="G339" s="38"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="26"/>
-      <c r="G340" s="28"/>
+      <c r="D340" s="36"/>
+      <c r="G340" s="38"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="26"/>
-      <c r="G341" s="28"/>
+      <c r="D341" s="36"/>
+      <c r="G341" s="38"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="26"/>
-      <c r="G342" s="28"/>
+      <c r="D342" s="36"/>
+      <c r="G342" s="38"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="26"/>
-      <c r="G343" s="28"/>
+      <c r="D343" s="36"/>
+      <c r="G343" s="38"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="26"/>
-      <c r="G344" s="28"/>
+      <c r="D344" s="36"/>
+      <c r="G344" s="38"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="26"/>
-      <c r="G345" s="28"/>
+      <c r="D345" s="36"/>
+      <c r="G345" s="38"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="26"/>
-      <c r="G346" s="28"/>
+      <c r="D346" s="36"/>
+      <c r="G346" s="38"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="26"/>
-      <c r="G347" s="28"/>
+      <c r="D347" s="36"/>
+      <c r="G347" s="38"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="26"/>
-      <c r="G348" s="28"/>
+      <c r="D348" s="36"/>
+      <c r="G348" s="38"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="26"/>
-      <c r="G349" s="28"/>
+      <c r="D349" s="36"/>
+      <c r="G349" s="38"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="26"/>
-      <c r="G350" s="28"/>
+      <c r="D350" s="36"/>
+      <c r="G350" s="38"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="26"/>
-      <c r="G351" s="28"/>
+      <c r="D351" s="36"/>
+      <c r="G351" s="38"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="26"/>
-      <c r="G352" s="28"/>
+      <c r="D352" s="36"/>
+      <c r="G352" s="38"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="26"/>
-      <c r="G353" s="28"/>
+      <c r="D353" s="36"/>
+      <c r="G353" s="38"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="26"/>
-      <c r="G354" s="28"/>
+      <c r="D354" s="36"/>
+      <c r="G354" s="38"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="26"/>
-      <c r="G355" s="28"/>
+      <c r="D355" s="36"/>
+      <c r="G355" s="38"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="26"/>
-      <c r="G356" s="28"/>
+      <c r="D356" s="36"/>
+      <c r="G356" s="38"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="26"/>
-      <c r="G357" s="28"/>
+      <c r="D357" s="36"/>
+      <c r="G357" s="38"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="26"/>
-      <c r="G358" s="28"/>
+      <c r="D358" s="36"/>
+      <c r="G358" s="38"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="26"/>
-      <c r="G359" s="28"/>
+      <c r="D359" s="36"/>
+      <c r="G359" s="38"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="26"/>
-      <c r="G360" s="28"/>
+      <c r="D360" s="36"/>
+      <c r="G360" s="38"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="26"/>
-      <c r="G361" s="28"/>
+      <c r="D361" s="36"/>
+      <c r="G361" s="38"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="26"/>
-      <c r="G362" s="28"/>
+      <c r="D362" s="36"/>
+      <c r="G362" s="38"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="26"/>
-      <c r="G363" s="28"/>
+      <c r="D363" s="36"/>
+      <c r="G363" s="38"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="26"/>
-      <c r="G364" s="28"/>
+      <c r="D364" s="36"/>
+      <c r="G364" s="38"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="26"/>
-      <c r="G365" s="28"/>
+      <c r="D365" s="36"/>
+      <c r="G365" s="38"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="26"/>
-      <c r="G366" s="28"/>
+      <c r="D366" s="36"/>
+      <c r="G366" s="38"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="26"/>
-      <c r="G367" s="28"/>
+      <c r="D367" s="36"/>
+      <c r="G367" s="38"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="26"/>
-      <c r="G368" s="28"/>
+      <c r="D368" s="36"/>
+      <c r="G368" s="38"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="26"/>
-      <c r="G369" s="28"/>
+      <c r="D369" s="36"/>
+      <c r="G369" s="38"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="26"/>
-      <c r="G370" s="28"/>
+      <c r="D370" s="36"/>
+      <c r="G370" s="38"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="26"/>
-      <c r="G371" s="28"/>
+      <c r="D371" s="36"/>
+      <c r="G371" s="38"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="26"/>
-      <c r="G372" s="28"/>
+      <c r="D372" s="36"/>
+      <c r="G372" s="38"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="26"/>
-      <c r="G373" s="28"/>
+      <c r="D373" s="36"/>
+      <c r="G373" s="38"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="26"/>
-      <c r="G374" s="28"/>
+      <c r="D374" s="36"/>
+      <c r="G374" s="38"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="26"/>
-      <c r="G375" s="28"/>
+      <c r="D375" s="36"/>
+      <c r="G375" s="38"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="26"/>
-      <c r="G376" s="28"/>
+      <c r="D376" s="36"/>
+      <c r="G376" s="38"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="26"/>
-      <c r="G377" s="28"/>
+      <c r="D377" s="36"/>
+      <c r="G377" s="38"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="26"/>
-      <c r="G378" s="28"/>
+      <c r="D378" s="36"/>
+      <c r="G378" s="38"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="26"/>
-      <c r="G379" s="28"/>
+      <c r="D379" s="36"/>
+      <c r="G379" s="38"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="26"/>
-      <c r="G380" s="28"/>
+      <c r="D380" s="36"/>
+      <c r="G380" s="38"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="26"/>
-      <c r="G381" s="28"/>
+      <c r="D381" s="36"/>
+      <c r="G381" s="38"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="26"/>
-      <c r="G382" s="28"/>
+      <c r="D382" s="36"/>
+      <c r="G382" s="38"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="26"/>
-      <c r="G383" s="28"/>
+      <c r="D383" s="36"/>
+      <c r="G383" s="38"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="26"/>
-      <c r="G384" s="28"/>
+      <c r="D384" s="36"/>
+      <c r="G384" s="38"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="26"/>
-      <c r="G385" s="28"/>
+      <c r="D385" s="36"/>
+      <c r="G385" s="38"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="26"/>
-      <c r="G386" s="28"/>
+      <c r="D386" s="36"/>
+      <c r="G386" s="38"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="26"/>
-      <c r="G387" s="28"/>
+      <c r="D387" s="36"/>
+      <c r="G387" s="38"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="26"/>
-      <c r="G388" s="28"/>
+      <c r="D388" s="36"/>
+      <c r="G388" s="38"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="26"/>
-      <c r="G389" s="28"/>
+      <c r="D389" s="36"/>
+      <c r="G389" s="38"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="26"/>
-      <c r="G390" s="28"/>
+      <c r="D390" s="36"/>
+      <c r="G390" s="38"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="26"/>
-      <c r="G391" s="28"/>
+      <c r="D391" s="36"/>
+      <c r="G391" s="38"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="26"/>
-      <c r="G392" s="28"/>
+      <c r="D392" s="36"/>
+      <c r="G392" s="38"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="26"/>
-      <c r="G393" s="28"/>
+      <c r="D393" s="36"/>
+      <c r="G393" s="38"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="26"/>
-      <c r="G394" s="28"/>
+      <c r="D394" s="36"/>
+      <c r="G394" s="38"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="26"/>
-      <c r="G395" s="28"/>
+      <c r="D395" s="36"/>
+      <c r="G395" s="38"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="26"/>
-      <c r="G396" s="28"/>
+      <c r="D396" s="36"/>
+      <c r="G396" s="38"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="26"/>
-      <c r="G397" s="28"/>
+      <c r="D397" s="36"/>
+      <c r="G397" s="38"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="26"/>
-      <c r="G398" s="28"/>
+      <c r="D398" s="36"/>
+      <c r="G398" s="38"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="26"/>
-      <c r="G399" s="28"/>
+      <c r="D399" s="36"/>
+      <c r="G399" s="38"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="26"/>
-      <c r="G400" s="28"/>
+      <c r="D400" s="36"/>
+      <c r="G400" s="38"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="26"/>
-      <c r="G401" s="28"/>
+      <c r="D401" s="36"/>
+      <c r="G401" s="38"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="26"/>
-      <c r="G402" s="28"/>
+      <c r="D402" s="36"/>
+      <c r="G402" s="38"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="26"/>
-      <c r="G403" s="28"/>
+      <c r="D403" s="36"/>
+      <c r="G403" s="38"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="26"/>
-      <c r="G404" s="28"/>
+      <c r="D404" s="36"/>
+      <c r="G404" s="38"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="26"/>
-      <c r="G405" s="28"/>
+      <c r="D405" s="36"/>
+      <c r="G405" s="38"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="26"/>
-      <c r="G406" s="28"/>
+      <c r="D406" s="36"/>
+      <c r="G406" s="38"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="26"/>
-      <c r="G407" s="28"/>
+      <c r="D407" s="36"/>
+      <c r="G407" s="38"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="26"/>
-      <c r="G408" s="28"/>
+      <c r="D408" s="36"/>
+      <c r="G408" s="38"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="26"/>
-      <c r="G409" s="28"/>
+      <c r="D409" s="36"/>
+      <c r="G409" s="38"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="26"/>
-      <c r="G410" s="28"/>
+      <c r="D410" s="36"/>
+      <c r="G410" s="38"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="26"/>
-      <c r="G411" s="28"/>
+      <c r="D411" s="36"/>
+      <c r="G411" s="38"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="26"/>
-      <c r="G412" s="28"/>
+      <c r="D412" s="36"/>
+      <c r="G412" s="38"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="26"/>
-      <c r="G413" s="28"/>
+      <c r="D413" s="36"/>
+      <c r="G413" s="38"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="26"/>
-      <c r="G414" s="28"/>
+      <c r="D414" s="36"/>
+      <c r="G414" s="38"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="26"/>
-      <c r="G415" s="28"/>
+      <c r="D415" s="36"/>
+      <c r="G415" s="38"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="26"/>
-      <c r="G416" s="28"/>
+      <c r="D416" s="36"/>
+      <c r="G416" s="38"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="26"/>
-      <c r="G417" s="28"/>
+      <c r="D417" s="36"/>
+      <c r="G417" s="38"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="26"/>
-      <c r="G418" s="28"/>
+      <c r="D418" s="36"/>
+      <c r="G418" s="38"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="26"/>
-      <c r="G419" s="28"/>
+      <c r="D419" s="36"/>
+      <c r="G419" s="38"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="26"/>
-      <c r="G420" s="28"/>
+      <c r="D420" s="36"/>
+      <c r="G420" s="38"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="26"/>
-      <c r="G421" s="28"/>
+      <c r="D421" s="36"/>
+      <c r="G421" s="38"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="26"/>
-      <c r="G422" s="28"/>
+      <c r="D422" s="36"/>
+      <c r="G422" s="38"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="26"/>
-      <c r="G423" s="28"/>
+      <c r="D423" s="36"/>
+      <c r="G423" s="38"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="26"/>
-      <c r="G424" s="28"/>
+      <c r="D424" s="36"/>
+      <c r="G424" s="38"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="26"/>
-      <c r="G425" s="28"/>
+      <c r="D425" s="36"/>
+      <c r="G425" s="38"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="26"/>
-      <c r="G426" s="28"/>
+      <c r="D426" s="36"/>
+      <c r="G426" s="38"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="26"/>
-      <c r="G427" s="28"/>
+      <c r="D427" s="36"/>
+      <c r="G427" s="38"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="26"/>
-      <c r="G428" s="28"/>
+      <c r="D428" s="36"/>
+      <c r="G428" s="38"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="26"/>
-      <c r="G429" s="28"/>
+      <c r="D429" s="36"/>
+      <c r="G429" s="38"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="26"/>
-      <c r="G430" s="28"/>
+      <c r="D430" s="36"/>
+      <c r="G430" s="38"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="26"/>
-      <c r="G431" s="28"/>
+      <c r="D431" s="36"/>
+      <c r="G431" s="38"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="26"/>
-      <c r="G432" s="28"/>
+      <c r="D432" s="36"/>
+      <c r="G432" s="38"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="26"/>
-      <c r="G433" s="28"/>
+      <c r="D433" s="36"/>
+      <c r="G433" s="38"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="26"/>
-      <c r="G434" s="28"/>
+      <c r="D434" s="36"/>
+      <c r="G434" s="38"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="26"/>
-      <c r="G435" s="28"/>
+      <c r="D435" s="36"/>
+      <c r="G435" s="38"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="26"/>
-      <c r="G436" s="28"/>
+      <c r="D436" s="36"/>
+      <c r="G436" s="38"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="26"/>
-      <c r="G437" s="28"/>
+      <c r="D437" s="36"/>
+      <c r="G437" s="38"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="26"/>
-      <c r="G438" s="28"/>
+      <c r="D438" s="36"/>
+      <c r="G438" s="38"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="26"/>
-      <c r="G439" s="28"/>
+      <c r="D439" s="36"/>
+      <c r="G439" s="38"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="26"/>
-      <c r="G440" s="28"/>
+      <c r="D440" s="36"/>
+      <c r="G440" s="38"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="26"/>
-      <c r="G441" s="28"/>
+      <c r="D441" s="36"/>
+      <c r="G441" s="38"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="26"/>
-      <c r="G442" s="28"/>
+      <c r="D442" s="36"/>
+      <c r="G442" s="38"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="26"/>
-      <c r="G443" s="28"/>
+      <c r="D443" s="36"/>
+      <c r="G443" s="38"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="26"/>
-      <c r="G444" s="28"/>
+      <c r="D444" s="36"/>
+      <c r="G444" s="38"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="26"/>
-      <c r="G445" s="28"/>
+      <c r="D445" s="36"/>
+      <c r="G445" s="38"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="26"/>
-      <c r="G446" s="28"/>
+      <c r="D446" s="36"/>
+      <c r="G446" s="38"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="26"/>
-      <c r="G447" s="28"/>
+      <c r="D447" s="36"/>
+      <c r="G447" s="38"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="26"/>
-      <c r="G448" s="28"/>
+      <c r="D448" s="36"/>
+      <c r="G448" s="38"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="26"/>
-      <c r="G449" s="28"/>
+      <c r="D449" s="36"/>
+      <c r="G449" s="38"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="26"/>
-      <c r="G450" s="28"/>
+      <c r="D450" s="36"/>
+      <c r="G450" s="38"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="26"/>
-      <c r="G451" s="28"/>
+      <c r="D451" s="36"/>
+      <c r="G451" s="38"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="26"/>
-      <c r="G452" s="28"/>
+      <c r="D452" s="36"/>
+      <c r="G452" s="38"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="26"/>
-      <c r="G453" s="28"/>
+      <c r="D453" s="36"/>
+      <c r="G453" s="38"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="26"/>
-      <c r="G454" s="28"/>
+      <c r="D454" s="36"/>
+      <c r="G454" s="38"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="26"/>
-      <c r="G455" s="28"/>
+      <c r="D455" s="36"/>
+      <c r="G455" s="38"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="26"/>
-      <c r="G456" s="28"/>
+      <c r="D456" s="36"/>
+      <c r="G456" s="38"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="26"/>
-      <c r="G457" s="28"/>
+      <c r="D457" s="36"/>
+      <c r="G457" s="38"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="26"/>
-      <c r="G458" s="28"/>
+      <c r="D458" s="36"/>
+      <c r="G458" s="38"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="26"/>
-      <c r="G459" s="28"/>
+      <c r="D459" s="36"/>
+      <c r="G459" s="38"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="26"/>
-      <c r="G460" s="28"/>
+      <c r="D460" s="36"/>
+      <c r="G460" s="38"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="26"/>
-      <c r="G461" s="28"/>
+      <c r="D461" s="36"/>
+      <c r="G461" s="38"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="26"/>
-      <c r="G462" s="28"/>
+      <c r="D462" s="36"/>
+      <c r="G462" s="38"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="26"/>
-      <c r="G463" s="28"/>
+      <c r="D463" s="36"/>
+      <c r="G463" s="38"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="26"/>
-      <c r="G464" s="28"/>
+      <c r="D464" s="36"/>
+      <c r="G464" s="38"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="26"/>
-      <c r="G465" s="28"/>
+      <c r="D465" s="36"/>
+      <c r="G465" s="38"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="26"/>
-      <c r="G466" s="28"/>
+      <c r="D466" s="36"/>
+      <c r="G466" s="38"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="26"/>
-      <c r="G467" s="28"/>
+      <c r="D467" s="36"/>
+      <c r="G467" s="38"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="26"/>
-      <c r="G468" s="28"/>
+      <c r="D468" s="36"/>
+      <c r="G468" s="38"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="26"/>
-      <c r="G469" s="28"/>
+      <c r="D469" s="36"/>
+      <c r="G469" s="38"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="26"/>
-      <c r="G470" s="28"/>
+      <c r="D470" s="36"/>
+      <c r="G470" s="38"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="26"/>
-      <c r="G471" s="28"/>
+      <c r="D471" s="36"/>
+      <c r="G471" s="38"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="26"/>
-      <c r="G472" s="28"/>
+      <c r="D472" s="36"/>
+      <c r="G472" s="38"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="26"/>
-      <c r="G473" s="28"/>
+      <c r="D473" s="36"/>
+      <c r="G473" s="38"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="26"/>
-      <c r="G474" s="28"/>
+      <c r="D474" s="36"/>
+      <c r="G474" s="38"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="26"/>
-      <c r="G475" s="28"/>
+      <c r="D475" s="36"/>
+      <c r="G475" s="38"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="26"/>
-      <c r="G476" s="28"/>
+      <c r="D476" s="36"/>
+      <c r="G476" s="38"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="26"/>
-      <c r="G477" s="28"/>
+      <c r="D477" s="36"/>
+      <c r="G477" s="38"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="26"/>
-      <c r="G478" s="28"/>
+      <c r="D478" s="36"/>
+      <c r="G478" s="38"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="26"/>
-      <c r="G479" s="28"/>
+      <c r="D479" s="36"/>
+      <c r="G479" s="38"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="26"/>
-      <c r="G480" s="28"/>
+      <c r="D480" s="36"/>
+      <c r="G480" s="38"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="26"/>
-      <c r="G481" s="28"/>
+      <c r="D481" s="36"/>
+      <c r="G481" s="38"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="26"/>
-      <c r="G482" s="28"/>
+      <c r="D482" s="36"/>
+      <c r="G482" s="38"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="26"/>
-      <c r="G483" s="28"/>
+      <c r="D483" s="36"/>
+      <c r="G483" s="38"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="26"/>
-      <c r="G484" s="28"/>
+      <c r="D484" s="36"/>
+      <c r="G484" s="38"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="26"/>
-      <c r="G485" s="28"/>
+      <c r="D485" s="36"/>
+      <c r="G485" s="38"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="26"/>
-      <c r="G486" s="28"/>
+      <c r="D486" s="36"/>
+      <c r="G486" s="38"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="26"/>
-      <c r="G487" s="28"/>
+      <c r="D487" s="36"/>
+      <c r="G487" s="38"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="26"/>
-      <c r="G488" s="28"/>
+      <c r="D488" s="36"/>
+      <c r="G488" s="38"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="26"/>
-      <c r="G489" s="28"/>
+      <c r="D489" s="36"/>
+      <c r="G489" s="38"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="26"/>
-      <c r="G490" s="28"/>
+      <c r="D490" s="36"/>
+      <c r="G490" s="38"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="26"/>
-      <c r="G491" s="28"/>
+      <c r="D491" s="36"/>
+      <c r="G491" s="38"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="26"/>
-      <c r="G492" s="28"/>
+      <c r="D492" s="36"/>
+      <c r="G492" s="38"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="26"/>
-      <c r="G493" s="28"/>
+      <c r="D493" s="36"/>
+      <c r="G493" s="38"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="26"/>
-      <c r="G494" s="28"/>
+      <c r="D494" s="36"/>
+      <c r="G494" s="38"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="26"/>
-      <c r="G495" s="28"/>
+      <c r="D495" s="36"/>
+      <c r="G495" s="38"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="26"/>
-      <c r="G496" s="28"/>
+      <c r="D496" s="36"/>
+      <c r="G496" s="38"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="26"/>
-      <c r="G497" s="28"/>
+      <c r="D497" s="36"/>
+      <c r="G497" s="38"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="26"/>
-      <c r="G498" s="28"/>
+      <c r="D498" s="36"/>
+      <c r="G498" s="38"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="26"/>
-      <c r="G499" s="28"/>
+      <c r="D499" s="36"/>
+      <c r="G499" s="38"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="26"/>
-      <c r="G500" s="28"/>
+      <c r="D500" s="36"/>
+      <c r="G500" s="38"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="26"/>
-      <c r="G501" s="28"/>
+      <c r="D501" s="36"/>
+      <c r="G501" s="38"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="26"/>
-      <c r="G502" s="28"/>
+      <c r="D502" s="36"/>
+      <c r="G502" s="38"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="26"/>
-      <c r="G503" s="28"/>
+      <c r="D503" s="36"/>
+      <c r="G503" s="38"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="26"/>
-      <c r="G504" s="28"/>
+      <c r="D504" s="36"/>
+      <c r="G504" s="38"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="26"/>
-      <c r="G505" s="28"/>
+      <c r="D505" s="36"/>
+      <c r="G505" s="38"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="26"/>
-      <c r="G506" s="28"/>
+      <c r="D506" s="36"/>
+      <c r="G506" s="38"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="26"/>
-      <c r="G507" s="28"/>
+      <c r="D507" s="36"/>
+      <c r="G507" s="38"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="26"/>
-      <c r="G508" s="28"/>
+      <c r="D508" s="36"/>
+      <c r="G508" s="38"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="26"/>
-      <c r="G509" s="28"/>
+      <c r="D509" s="36"/>
+      <c r="G509" s="38"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="26"/>
-      <c r="G510" s="28"/>
+      <c r="D510" s="36"/>
+      <c r="G510" s="38"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="26"/>
-      <c r="G511" s="28"/>
+      <c r="D511" s="36"/>
+      <c r="G511" s="38"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="26"/>
-      <c r="G512" s="28"/>
+      <c r="D512" s="36"/>
+      <c r="G512" s="38"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="26"/>
-      <c r="G513" s="28"/>
+      <c r="D513" s="36"/>
+      <c r="G513" s="38"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="26"/>
-      <c r="G514" s="28"/>
+      <c r="D514" s="36"/>
+      <c r="G514" s="38"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="26"/>
-      <c r="G515" s="28"/>
+      <c r="D515" s="36"/>
+      <c r="G515" s="38"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="26"/>
-      <c r="G516" s="28"/>
+      <c r="D516" s="36"/>
+      <c r="G516" s="38"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="26"/>
-      <c r="G517" s="28"/>
+      <c r="D517" s="36"/>
+      <c r="G517" s="38"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="26"/>
-      <c r="G518" s="28"/>
+      <c r="D518" s="36"/>
+      <c r="G518" s="38"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="26"/>
-      <c r="G519" s="28"/>
+      <c r="D519" s="36"/>
+      <c r="G519" s="38"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="26"/>
-      <c r="G520" s="28"/>
+      <c r="D520" s="36"/>
+      <c r="G520" s="38"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="26"/>
-      <c r="G521" s="28"/>
+      <c r="D521" s="36"/>
+      <c r="G521" s="38"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="26"/>
-      <c r="G522" s="28"/>
+      <c r="D522" s="36"/>
+      <c r="G522" s="38"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="26"/>
-      <c r="G523" s="28"/>
+      <c r="D523" s="36"/>
+      <c r="G523" s="38"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="26"/>
-      <c r="G524" s="28"/>
+      <c r="D524" s="36"/>
+      <c r="G524" s="38"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="26"/>
-      <c r="G525" s="28"/>
+      <c r="D525" s="36"/>
+      <c r="G525" s="38"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="26"/>
-      <c r="G526" s="28"/>
+      <c r="D526" s="36"/>
+      <c r="G526" s="38"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="26"/>
-      <c r="G527" s="28"/>
+      <c r="D527" s="36"/>
+      <c r="G527" s="38"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="26"/>
-      <c r="G528" s="28"/>
+      <c r="D528" s="36"/>
+      <c r="G528" s="38"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="26"/>
-      <c r="G529" s="28"/>
+      <c r="D529" s="36"/>
+      <c r="G529" s="38"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="26"/>
-      <c r="G530" s="28"/>
+      <c r="D530" s="36"/>
+      <c r="G530" s="38"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="26"/>
-      <c r="G531" s="28"/>
+      <c r="D531" s="36"/>
+      <c r="G531" s="38"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="26"/>
-      <c r="G532" s="28"/>
+      <c r="D532" s="36"/>
+      <c r="G532" s="38"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="26"/>
-      <c r="G533" s="28"/>
+      <c r="D533" s="36"/>
+      <c r="G533" s="38"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="26"/>
-      <c r="G534" s="28"/>
+      <c r="D534" s="36"/>
+      <c r="G534" s="38"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="26"/>
-      <c r="G535" s="28"/>
+      <c r="D535" s="36"/>
+      <c r="G535" s="38"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="26"/>
-      <c r="G536" s="28"/>
+      <c r="D536" s="36"/>
+      <c r="G536" s="38"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="26"/>
-      <c r="G537" s="28"/>
+      <c r="D537" s="36"/>
+      <c r="G537" s="38"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="26"/>
-      <c r="G538" s="28"/>
+      <c r="D538" s="36"/>
+      <c r="G538" s="38"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="26"/>
-      <c r="G539" s="28"/>
+      <c r="D539" s="36"/>
+      <c r="G539" s="38"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="26"/>
-      <c r="G540" s="28"/>
+      <c r="D540" s="36"/>
+      <c r="G540" s="38"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="26"/>
-      <c r="G541" s="28"/>
+      <c r="D541" s="36"/>
+      <c r="G541" s="38"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="26"/>
-      <c r="G542" s="28"/>
+      <c r="D542" s="36"/>
+      <c r="G542" s="38"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="26"/>
-      <c r="G543" s="28"/>
+      <c r="D543" s="36"/>
+      <c r="G543" s="38"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="26"/>
-      <c r="G544" s="28"/>
+      <c r="D544" s="36"/>
+      <c r="G544" s="38"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="26"/>
-      <c r="G545" s="28"/>
+      <c r="D545" s="36"/>
+      <c r="G545" s="38"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="26"/>
-      <c r="G546" s="28"/>
+      <c r="D546" s="36"/>
+      <c r="G546" s="38"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="26"/>
-      <c r="G547" s="28"/>
+      <c r="D547" s="36"/>
+      <c r="G547" s="38"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="26"/>
-      <c r="G548" s="28"/>
+      <c r="D548" s="36"/>
+      <c r="G548" s="38"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="26"/>
-      <c r="G549" s="28"/>
+      <c r="D549" s="36"/>
+      <c r="G549" s="38"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="26"/>
-      <c r="G550" s="28"/>
+      <c r="D550" s="36"/>
+      <c r="G550" s="38"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="26"/>
-      <c r="G551" s="28"/>
+      <c r="D551" s="36"/>
+      <c r="G551" s="38"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="26"/>
-      <c r="G552" s="28"/>
+      <c r="D552" s="36"/>
+      <c r="G552" s="38"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="26"/>
-      <c r="G553" s="28"/>
+      <c r="D553" s="36"/>
+      <c r="G553" s="38"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="26"/>
-      <c r="G554" s="28"/>
+      <c r="D554" s="36"/>
+      <c r="G554" s="38"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="26"/>
-      <c r="G555" s="28"/>
+      <c r="D555" s="36"/>
+      <c r="G555" s="38"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="26"/>
-      <c r="G556" s="28"/>
+      <c r="D556" s="36"/>
+      <c r="G556" s="38"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="26"/>
-      <c r="G557" s="28"/>
+      <c r="D557" s="36"/>
+      <c r="G557" s="38"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="26"/>
-      <c r="G558" s="28"/>
+      <c r="D558" s="36"/>
+      <c r="G558" s="38"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="26"/>
-      <c r="G559" s="28"/>
+      <c r="D559" s="36"/>
+      <c r="G559" s="38"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="26"/>
-      <c r="G560" s="28"/>
+      <c r="D560" s="36"/>
+      <c r="G560" s="38"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="26"/>
-      <c r="G561" s="28"/>
+      <c r="D561" s="36"/>
+      <c r="G561" s="38"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="26"/>
-      <c r="G562" s="28"/>
+      <c r="D562" s="36"/>
+      <c r="G562" s="38"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="26"/>
-      <c r="G563" s="28"/>
+      <c r="D563" s="36"/>
+      <c r="G563" s="38"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="26"/>
-      <c r="G564" s="28"/>
+      <c r="D564" s="36"/>
+      <c r="G564" s="38"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="26"/>
-      <c r="G565" s="28"/>
+      <c r="D565" s="36"/>
+      <c r="G565" s="38"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="26"/>
-      <c r="G566" s="28"/>
+      <c r="D566" s="36"/>
+      <c r="G566" s="38"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="26"/>
-      <c r="G567" s="28"/>
+      <c r="D567" s="36"/>
+      <c r="G567" s="38"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="26"/>
-      <c r="G568" s="28"/>
+      <c r="D568" s="36"/>
+      <c r="G568" s="38"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="26"/>
-      <c r="G569" s="28"/>
+      <c r="D569" s="36"/>
+      <c r="G569" s="38"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="26"/>
-      <c r="G570" s="28"/>
+      <c r="D570" s="36"/>
+      <c r="G570" s="38"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="26"/>
-      <c r="G571" s="28"/>
+      <c r="D571" s="36"/>
+      <c r="G571" s="38"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="26"/>
-      <c r="G572" s="28"/>
+      <c r="D572" s="36"/>
+      <c r="G572" s="38"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="26"/>
-      <c r="G573" s="28"/>
+      <c r="D573" s="36"/>
+      <c r="G573" s="38"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="26"/>
-      <c r="G574" s="28"/>
+      <c r="D574" s="36"/>
+      <c r="G574" s="38"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="26"/>
-      <c r="G575" s="28"/>
+      <c r="D575" s="36"/>
+      <c r="G575" s="38"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="26"/>
-      <c r="G576" s="28"/>
+      <c r="D576" s="36"/>
+      <c r="G576" s="38"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="26"/>
-      <c r="G577" s="28"/>
+      <c r="D577" s="36"/>
+      <c r="G577" s="38"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="26"/>
-      <c r="G578" s="28"/>
+      <c r="D578" s="36"/>
+      <c r="G578" s="38"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="26"/>
-      <c r="G579" s="28"/>
+      <c r="D579" s="36"/>
+      <c r="G579" s="38"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="26"/>
-      <c r="G580" s="28"/>
+      <c r="D580" s="36"/>
+      <c r="G580" s="38"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="26"/>
-      <c r="G581" s="28"/>
+      <c r="D581" s="36"/>
+      <c r="G581" s="38"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="26"/>
-      <c r="G582" s="28"/>
+      <c r="D582" s="36"/>
+      <c r="G582" s="38"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="26"/>
-      <c r="G583" s="28"/>
+      <c r="D583" s="36"/>
+      <c r="G583" s="38"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="26"/>
-      <c r="G584" s="28"/>
+      <c r="D584" s="36"/>
+      <c r="G584" s="38"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="26"/>
-      <c r="G585" s="28"/>
+      <c r="D585" s="36"/>
+      <c r="G585" s="38"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="26"/>
-      <c r="G586" s="28"/>
+      <c r="D586" s="36"/>
+      <c r="G586" s="38"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="26"/>
-      <c r="G587" s="28"/>
+      <c r="D587" s="36"/>
+      <c r="G587" s="38"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="26"/>
-      <c r="G588" s="28"/>
+      <c r="D588" s="36"/>
+      <c r="G588" s="38"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="26"/>
-      <c r="G589" s="28"/>
+      <c r="D589" s="36"/>
+      <c r="G589" s="38"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="26"/>
-      <c r="G590" s="28"/>
+      <c r="D590" s="36"/>
+      <c r="G590" s="38"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="26"/>
-      <c r="G591" s="28"/>
+      <c r="D591" s="36"/>
+      <c r="G591" s="38"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="26"/>
-      <c r="G592" s="28"/>
+      <c r="D592" s="36"/>
+      <c r="G592" s="38"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="26"/>
-      <c r="G593" s="28"/>
+      <c r="D593" s="36"/>
+      <c r="G593" s="38"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="26"/>
-      <c r="G594" s="28"/>
+      <c r="D594" s="36"/>
+      <c r="G594" s="38"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="26"/>
-      <c r="G595" s="28"/>
+      <c r="D595" s="36"/>
+      <c r="G595" s="38"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="26"/>
-      <c r="G596" s="28"/>
+      <c r="D596" s="36"/>
+      <c r="G596" s="38"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="26"/>
-      <c r="G597" s="28"/>
+      <c r="D597" s="36"/>
+      <c r="G597" s="38"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="26"/>
-      <c r="G598" s="28"/>
+      <c r="D598" s="36"/>
+      <c r="G598" s="38"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="26"/>
-      <c r="G599" s="28"/>
+      <c r="D599" s="36"/>
+      <c r="G599" s="38"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="26"/>
-      <c r="G600" s="28"/>
+      <c r="D600" s="36"/>
+      <c r="G600" s="38"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="26"/>
-      <c r="G601" s="28"/>
+      <c r="D601" s="36"/>
+      <c r="G601" s="38"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="26"/>
-      <c r="G602" s="28"/>
+      <c r="D602" s="36"/>
+      <c r="G602" s="38"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="26"/>
-      <c r="G603" s="28"/>
+      <c r="D603" s="36"/>
+      <c r="G603" s="38"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="26"/>
-      <c r="G604" s="28"/>
+      <c r="D604" s="36"/>
+      <c r="G604" s="38"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="26"/>
-      <c r="G605" s="28"/>
+      <c r="D605" s="36"/>
+      <c r="G605" s="38"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="26"/>
-      <c r="G606" s="28"/>
+      <c r="D606" s="36"/>
+      <c r="G606" s="38"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="26"/>
-      <c r="G607" s="28"/>
+      <c r="D607" s="36"/>
+      <c r="G607" s="38"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="26"/>
-      <c r="G608" s="28"/>
+      <c r="D608" s="36"/>
+      <c r="G608" s="38"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="26"/>
-      <c r="G609" s="28"/>
+      <c r="D609" s="36"/>
+      <c r="G609" s="38"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="26"/>
-      <c r="G610" s="28"/>
+      <c r="D610" s="36"/>
+      <c r="G610" s="38"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="26"/>
-      <c r="G611" s="28"/>
+      <c r="D611" s="36"/>
+      <c r="G611" s="38"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="26"/>
-      <c r="G612" s="28"/>
+      <c r="D612" s="36"/>
+      <c r="G612" s="38"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="26"/>
-      <c r="G613" s="28"/>
+      <c r="D613" s="36"/>
+      <c r="G613" s="38"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="26"/>
-      <c r="G614" s="28"/>
+      <c r="D614" s="36"/>
+      <c r="G614" s="38"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="26"/>
-      <c r="G615" s="28"/>
+      <c r="D615" s="36"/>
+      <c r="G615" s="38"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="26"/>
-      <c r="G616" s="28"/>
+      <c r="D616" s="36"/>
+      <c r="G616" s="38"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="26"/>
-      <c r="G617" s="28"/>
+      <c r="D617" s="36"/>
+      <c r="G617" s="38"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="26"/>
-      <c r="G618" s="28"/>
+      <c r="D618" s="36"/>
+      <c r="G618" s="38"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="26"/>
-      <c r="G619" s="28"/>
+      <c r="D619" s="36"/>
+      <c r="G619" s="38"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="26"/>
-      <c r="G620" s="28"/>
+      <c r="D620" s="36"/>
+      <c r="G620" s="38"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="26"/>
-      <c r="G621" s="28"/>
+      <c r="D621" s="36"/>
+      <c r="G621" s="38"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="26"/>
-      <c r="G622" s="28"/>
+      <c r="D622" s="36"/>
+      <c r="G622" s="38"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="26"/>
-      <c r="G623" s="28"/>
+      <c r="D623" s="36"/>
+      <c r="G623" s="38"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="26"/>
-      <c r="G624" s="28"/>
+      <c r="D624" s="36"/>
+      <c r="G624" s="38"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="26"/>
-      <c r="G625" s="28"/>
+      <c r="D625" s="36"/>
+      <c r="G625" s="38"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="26"/>
-      <c r="G626" s="28"/>
+      <c r="D626" s="36"/>
+      <c r="G626" s="38"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="26"/>
-      <c r="G627" s="28"/>
+      <c r="D627" s="36"/>
+      <c r="G627" s="38"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="26"/>
-      <c r="G628" s="28"/>
+      <c r="D628" s="36"/>
+      <c r="G628" s="38"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="26"/>
-      <c r="G629" s="28"/>
+      <c r="D629" s="36"/>
+      <c r="G629" s="38"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="26"/>
-      <c r="G630" s="28"/>
+      <c r="D630" s="36"/>
+      <c r="G630" s="38"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="26"/>
-      <c r="G631" s="28"/>
+      <c r="D631" s="36"/>
+      <c r="G631" s="38"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="26"/>
-      <c r="G632" s="28"/>
+      <c r="D632" s="36"/>
+      <c r="G632" s="38"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="26"/>
-      <c r="G633" s="28"/>
+      <c r="D633" s="36"/>
+      <c r="G633" s="38"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="26"/>
-      <c r="G634" s="28"/>
+      <c r="D634" s="36"/>
+      <c r="G634" s="38"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="26"/>
-      <c r="G635" s="28"/>
+      <c r="D635" s="36"/>
+      <c r="G635" s="38"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="26"/>
-      <c r="G636" s="28"/>
+      <c r="D636" s="36"/>
+      <c r="G636" s="38"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="26"/>
-      <c r="G637" s="28"/>
+      <c r="D637" s="36"/>
+      <c r="G637" s="38"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="26"/>
-      <c r="G638" s="28"/>
+      <c r="D638" s="36"/>
+      <c r="G638" s="38"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="26"/>
-      <c r="G639" s="28"/>
+      <c r="D639" s="36"/>
+      <c r="G639" s="38"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="26"/>
-      <c r="G640" s="28"/>
+      <c r="D640" s="36"/>
+      <c r="G640" s="38"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="26"/>
-      <c r="G641" s="28"/>
+      <c r="D641" s="36"/>
+      <c r="G641" s="38"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="26"/>
-      <c r="G642" s="28"/>
+      <c r="D642" s="36"/>
+      <c r="G642" s="38"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="26"/>
-      <c r="G643" s="28"/>
+      <c r="D643" s="36"/>
+      <c r="G643" s="38"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="26"/>
-      <c r="G644" s="28"/>
+      <c r="D644" s="36"/>
+      <c r="G644" s="38"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="26"/>
-      <c r="G645" s="28"/>
+      <c r="D645" s="36"/>
+      <c r="G645" s="38"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="26"/>
-      <c r="G646" s="28"/>
+      <c r="D646" s="36"/>
+      <c r="G646" s="38"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="26"/>
-      <c r="G647" s="28"/>
+      <c r="D647" s="36"/>
+      <c r="G647" s="38"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="26"/>
-      <c r="G648" s="28"/>
+      <c r="D648" s="36"/>
+      <c r="G648" s="38"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="26"/>
-      <c r="G649" s="28"/>
+      <c r="D649" s="36"/>
+      <c r="G649" s="38"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="26"/>
-      <c r="G650" s="28"/>
+      <c r="D650" s="36"/>
+      <c r="G650" s="38"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="26"/>
-      <c r="G651" s="28"/>
+      <c r="D651" s="36"/>
+      <c r="G651" s="38"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="26"/>
-      <c r="G652" s="28"/>
+      <c r="D652" s="36"/>
+      <c r="G652" s="38"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="26"/>
-      <c r="G653" s="28"/>
+      <c r="D653" s="36"/>
+      <c r="G653" s="38"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="26"/>
-      <c r="G654" s="28"/>
+      <c r="D654" s="36"/>
+      <c r="G654" s="38"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="26"/>
-      <c r="G655" s="28"/>
+      <c r="D655" s="36"/>
+      <c r="G655" s="38"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="26"/>
-      <c r="G656" s="28"/>
+      <c r="D656" s="36"/>
+      <c r="G656" s="38"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="26"/>
-      <c r="G657" s="28"/>
+      <c r="D657" s="36"/>
+      <c r="G657" s="38"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="26"/>
-      <c r="G658" s="28"/>
+      <c r="D658" s="36"/>
+      <c r="G658" s="38"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="26"/>
-      <c r="G659" s="28"/>
+      <c r="D659" s="36"/>
+      <c r="G659" s="38"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="26"/>
-      <c r="G660" s="28"/>
+      <c r="D660" s="36"/>
+      <c r="G660" s="38"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="26"/>
-      <c r="G661" s="28"/>
+      <c r="D661" s="36"/>
+      <c r="G661" s="38"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="26"/>
-      <c r="G662" s="28"/>
+      <c r="D662" s="36"/>
+      <c r="G662" s="38"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="26"/>
-      <c r="G663" s="28"/>
+      <c r="D663" s="36"/>
+      <c r="G663" s="38"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="26"/>
-      <c r="G664" s="28"/>
+      <c r="D664" s="36"/>
+      <c r="G664" s="38"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="26"/>
-      <c r="G665" s="28"/>
+      <c r="D665" s="36"/>
+      <c r="G665" s="38"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="26"/>
-      <c r="G666" s="28"/>
+      <c r="D666" s="36"/>
+      <c r="G666" s="38"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="26"/>
-      <c r="G667" s="28"/>
+      <c r="D667" s="36"/>
+      <c r="G667" s="38"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="26"/>
-      <c r="G668" s="28"/>
+      <c r="D668" s="36"/>
+      <c r="G668" s="38"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="26"/>
-      <c r="G669" s="28"/>
+      <c r="D669" s="36"/>
+      <c r="G669" s="38"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="26"/>
-      <c r="G670" s="28"/>
+      <c r="D670" s="36"/>
+      <c r="G670" s="38"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="26"/>
-      <c r="G671" s="28"/>
+      <c r="D671" s="36"/>
+      <c r="G671" s="38"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="26"/>
-      <c r="G672" s="28"/>
+      <c r="D672" s="36"/>
+      <c r="G672" s="38"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="26"/>
-      <c r="G673" s="28"/>
+      <c r="D673" s="36"/>
+      <c r="G673" s="38"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="26"/>
-      <c r="G674" s="28"/>
+      <c r="D674" s="36"/>
+      <c r="G674" s="38"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="26"/>
-      <c r="G675" s="28"/>
+      <c r="D675" s="36"/>
+      <c r="G675" s="38"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="26"/>
-      <c r="G676" s="28"/>
+      <c r="D676" s="36"/>
+      <c r="G676" s="38"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="26"/>
-      <c r="G677" s="28"/>
+      <c r="D677" s="36"/>
+      <c r="G677" s="38"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="26"/>
-      <c r="G678" s="28"/>
+      <c r="D678" s="36"/>
+      <c r="G678" s="38"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="26"/>
-      <c r="G679" s="28"/>
+      <c r="D679" s="36"/>
+      <c r="G679" s="38"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="26"/>
-      <c r="G680" s="28"/>
+      <c r="D680" s="36"/>
+      <c r="G680" s="38"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="26"/>
-      <c r="G681" s="28"/>
+      <c r="D681" s="36"/>
+      <c r="G681" s="38"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="26"/>
-      <c r="G682" s="28"/>
+      <c r="D682" s="36"/>
+      <c r="G682" s="38"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="26"/>
-      <c r="G683" s="28"/>
+      <c r="D683" s="36"/>
+      <c r="G683" s="38"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="26"/>
-      <c r="G684" s="28"/>
+      <c r="D684" s="36"/>
+      <c r="G684" s="38"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="26"/>
-      <c r="G685" s="28"/>
+      <c r="D685" s="36"/>
+      <c r="G685" s="38"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="26"/>
-      <c r="G686" s="28"/>
+      <c r="D686" s="36"/>
+      <c r="G686" s="38"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="26"/>
-      <c r="G687" s="28"/>
+      <c r="D687" s="36"/>
+      <c r="G687" s="38"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="26"/>
-      <c r="G688" s="28"/>
+      <c r="D688" s="36"/>
+      <c r="G688" s="38"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="26"/>
-      <c r="G689" s="28"/>
+      <c r="D689" s="36"/>
+      <c r="G689" s="38"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="26"/>
-      <c r="G690" s="28"/>
+      <c r="D690" s="36"/>
+      <c r="G690" s="38"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="26"/>
-      <c r="G691" s="28"/>
+      <c r="D691" s="36"/>
+      <c r="G691" s="38"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="26"/>
-      <c r="G692" s="28"/>
+      <c r="D692" s="36"/>
+      <c r="G692" s="38"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="26"/>
-      <c r="G693" s="28"/>
+      <c r="D693" s="36"/>
+      <c r="G693" s="38"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="26"/>
-      <c r="G694" s="28"/>
+      <c r="D694" s="36"/>
+      <c r="G694" s="38"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="26"/>
-      <c r="G695" s="28"/>
+      <c r="D695" s="36"/>
+      <c r="G695" s="38"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="26"/>
-      <c r="G696" s="28"/>
+      <c r="D696" s="36"/>
+      <c r="G696" s="38"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="26"/>
-      <c r="G697" s="28"/>
+      <c r="D697" s="36"/>
+      <c r="G697" s="38"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="26"/>
-      <c r="G698" s="28"/>
+      <c r="D698" s="36"/>
+      <c r="G698" s="38"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="26"/>
-      <c r="G699" s="28"/>
+      <c r="D699" s="36"/>
+      <c r="G699" s="38"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="26"/>
-      <c r="G700" s="28"/>
+      <c r="D700" s="36"/>
+      <c r="G700" s="38"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="26"/>
-      <c r="G701" s="28"/>
+      <c r="D701" s="36"/>
+      <c r="G701" s="38"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="26"/>
-      <c r="G702" s="28"/>
+      <c r="D702" s="36"/>
+      <c r="G702" s="38"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="26"/>
-      <c r="G703" s="28"/>
+      <c r="D703" s="36"/>
+      <c r="G703" s="38"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="26"/>
-      <c r="G704" s="28"/>
+      <c r="D704" s="36"/>
+      <c r="G704" s="38"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="26"/>
-      <c r="G705" s="28"/>
+      <c r="D705" s="36"/>
+      <c r="G705" s="38"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="26"/>
-      <c r="G706" s="28"/>
+      <c r="D706" s="36"/>
+      <c r="G706" s="38"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="26"/>
-      <c r="G707" s="28"/>
+      <c r="D707" s="36"/>
+      <c r="G707" s="38"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="26"/>
-      <c r="G708" s="28"/>
+      <c r="D708" s="36"/>
+      <c r="G708" s="38"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="26"/>
-      <c r="G709" s="28"/>
+      <c r="D709" s="36"/>
+      <c r="G709" s="38"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="26"/>
-      <c r="G710" s="28"/>
+      <c r="D710" s="36"/>
+      <c r="G710" s="38"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="26"/>
-      <c r="G711" s="28"/>
+      <c r="D711" s="36"/>
+      <c r="G711" s="38"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="26"/>
-      <c r="G712" s="28"/>
+      <c r="D712" s="36"/>
+      <c r="G712" s="38"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="26"/>
-      <c r="G713" s="28"/>
+      <c r="D713" s="36"/>
+      <c r="G713" s="38"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="26"/>
-      <c r="G714" s="28"/>
+      <c r="D714" s="36"/>
+      <c r="G714" s="38"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="26"/>
-      <c r="G715" s="28"/>
+      <c r="D715" s="36"/>
+      <c r="G715" s="38"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="26"/>
-      <c r="G716" s="28"/>
+      <c r="D716" s="36"/>
+      <c r="G716" s="38"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="26"/>
-      <c r="G717" s="28"/>
+      <c r="D717" s="36"/>
+      <c r="G717" s="38"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="26"/>
-      <c r="G718" s="28"/>
+      <c r="D718" s="36"/>
+      <c r="G718" s="38"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="26"/>
-      <c r="G719" s="28"/>
+      <c r="D719" s="36"/>
+      <c r="G719" s="38"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="26"/>
-      <c r="G720" s="28"/>
+      <c r="D720" s="36"/>
+      <c r="G720" s="38"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="26"/>
-      <c r="G721" s="28"/>
+      <c r="D721" s="36"/>
+      <c r="G721" s="38"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="26"/>
-      <c r="G722" s="28"/>
+      <c r="D722" s="36"/>
+      <c r="G722" s="38"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="26"/>
-      <c r="G723" s="28"/>
+      <c r="D723" s="36"/>
+      <c r="G723" s="38"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="26"/>
-      <c r="G724" s="28"/>
+      <c r="D724" s="36"/>
+      <c r="G724" s="38"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="26"/>
-      <c r="G725" s="28"/>
+      <c r="D725" s="36"/>
+      <c r="G725" s="38"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="26"/>
-      <c r="G726" s="28"/>
+      <c r="D726" s="36"/>
+      <c r="G726" s="38"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="26"/>
-      <c r="G727" s="28"/>
+      <c r="D727" s="36"/>
+      <c r="G727" s="38"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="26"/>
-      <c r="G728" s="28"/>
+      <c r="D728" s="36"/>
+      <c r="G728" s="38"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="26"/>
-      <c r="G729" s="28"/>
+      <c r="D729" s="36"/>
+      <c r="G729" s="38"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="26"/>
-      <c r="G730" s="28"/>
+      <c r="D730" s="36"/>
+      <c r="G730" s="38"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="26"/>
-      <c r="G731" s="28"/>
+      <c r="D731" s="36"/>
+      <c r="G731" s="38"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="26"/>
-      <c r="G732" s="28"/>
+      <c r="D732" s="36"/>
+      <c r="G732" s="38"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="26"/>
-      <c r="G733" s="28"/>
+      <c r="D733" s="36"/>
+      <c r="G733" s="38"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="26"/>
-      <c r="G734" s="28"/>
+      <c r="D734" s="36"/>
+      <c r="G734" s="38"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="26"/>
-      <c r="G735" s="28"/>
+      <c r="D735" s="36"/>
+      <c r="G735" s="38"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="26"/>
-      <c r="G736" s="28"/>
+      <c r="D736" s="36"/>
+      <c r="G736" s="38"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="26"/>
-      <c r="G737" s="28"/>
+      <c r="D737" s="36"/>
+      <c r="G737" s="38"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="26"/>
-      <c r="G738" s="28"/>
+      <c r="D738" s="36"/>
+      <c r="G738" s="38"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="26"/>
-      <c r="G739" s="28"/>
+      <c r="D739" s="36"/>
+      <c r="G739" s="38"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="26"/>
-      <c r="G740" s="28"/>
+      <c r="D740" s="36"/>
+      <c r="G740" s="38"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="26"/>
-      <c r="G741" s="28"/>
+      <c r="D741" s="36"/>
+      <c r="G741" s="38"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="26"/>
-      <c r="G742" s="28"/>
+      <c r="D742" s="36"/>
+      <c r="G742" s="38"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="26"/>
-      <c r="G743" s="28"/>
+      <c r="D743" s="36"/>
+      <c r="G743" s="38"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="26"/>
-      <c r="G744" s="28"/>
+      <c r="D744" s="36"/>
+      <c r="G744" s="38"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="26"/>
-      <c r="G745" s="28"/>
+      <c r="D745" s="36"/>
+      <c r="G745" s="38"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="26"/>
-      <c r="G746" s="28"/>
+      <c r="D746" s="36"/>
+      <c r="G746" s="38"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="26"/>
-      <c r="G747" s="28"/>
+      <c r="D747" s="36"/>
+      <c r="G747" s="38"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="26"/>
-      <c r="G748" s="28"/>
+      <c r="D748" s="36"/>
+      <c r="G748" s="38"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="26"/>
-      <c r="G749" s="28"/>
+      <c r="D749" s="36"/>
+      <c r="G749" s="38"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="26"/>
-      <c r="G750" s="28"/>
+      <c r="D750" s="36"/>
+      <c r="G750" s="38"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="26"/>
-      <c r="G751" s="28"/>
+      <c r="D751" s="36"/>
+      <c r="G751" s="38"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="26"/>
-      <c r="G752" s="28"/>
+      <c r="D752" s="36"/>
+      <c r="G752" s="38"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="26"/>
-      <c r="G753" s="28"/>
+      <c r="D753" s="36"/>
+      <c r="G753" s="38"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="26"/>
-      <c r="G754" s="28"/>
+      <c r="D754" s="36"/>
+      <c r="G754" s="38"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="26"/>
-      <c r="G755" s="28"/>
+      <c r="D755" s="36"/>
+      <c r="G755" s="38"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="26"/>
-      <c r="G756" s="28"/>
+      <c r="D756" s="36"/>
+      <c r="G756" s="38"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="26"/>
-      <c r="G757" s="28"/>
+      <c r="D757" s="36"/>
+      <c r="G757" s="38"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="26"/>
-      <c r="G758" s="28"/>
+      <c r="D758" s="36"/>
+      <c r="G758" s="38"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="26"/>
-      <c r="G759" s="28"/>
+      <c r="D759" s="36"/>
+      <c r="G759" s="38"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="26"/>
-      <c r="G760" s="28"/>
+      <c r="D760" s="36"/>
+      <c r="G760" s="38"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="26"/>
-      <c r="G761" s="28"/>
+      <c r="D761" s="36"/>
+      <c r="G761" s="38"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="26"/>
-      <c r="G762" s="28"/>
+      <c r="D762" s="36"/>
+      <c r="G762" s="38"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="26"/>
-      <c r="G763" s="28"/>
+      <c r="D763" s="36"/>
+      <c r="G763" s="38"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="26"/>
-      <c r="G764" s="28"/>
+      <c r="D764" s="36"/>
+      <c r="G764" s="38"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="26"/>
-      <c r="G765" s="28"/>
+      <c r="D765" s="36"/>
+      <c r="G765" s="38"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="26"/>
-      <c r="G766" s="28"/>
+      <c r="D766" s="36"/>
+      <c r="G766" s="38"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="26"/>
-      <c r="G767" s="28"/>
+      <c r="D767" s="36"/>
+      <c r="G767" s="38"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="26"/>
-      <c r="G768" s="28"/>
+      <c r="D768" s="36"/>
+      <c r="G768" s="38"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="26"/>
-      <c r="G769" s="28"/>
+      <c r="D769" s="36"/>
+      <c r="G769" s="38"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="26"/>
-      <c r="G770" s="28"/>
+      <c r="D770" s="36"/>
+      <c r="G770" s="38"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="26"/>
-      <c r="G771" s="28"/>
+      <c r="D771" s="36"/>
+      <c r="G771" s="38"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="26"/>
-      <c r="G772" s="28"/>
+      <c r="D772" s="36"/>
+      <c r="G772" s="38"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="26"/>
-      <c r="G773" s="28"/>
+      <c r="D773" s="36"/>
+      <c r="G773" s="38"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="26"/>
-      <c r="G774" s="28"/>
+      <c r="D774" s="36"/>
+      <c r="G774" s="38"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="26"/>
-      <c r="G775" s="28"/>
+      <c r="D775" s="36"/>
+      <c r="G775" s="38"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="26"/>
-      <c r="G776" s="28"/>
+      <c r="D776" s="36"/>
+      <c r="G776" s="38"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="26"/>
-      <c r="G777" s="28"/>
+      <c r="D777" s="36"/>
+      <c r="G777" s="38"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="26"/>
-      <c r="G778" s="28"/>
+      <c r="D778" s="36"/>
+      <c r="G778" s="38"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="26"/>
-      <c r="G779" s="28"/>
+      <c r="D779" s="36"/>
+      <c r="G779" s="38"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="26"/>
-      <c r="G780" s="28"/>
+      <c r="D780" s="36"/>
+      <c r="G780" s="38"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="26"/>
-      <c r="G781" s="28"/>
+      <c r="D781" s="36"/>
+      <c r="G781" s="38"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="26"/>
-      <c r="G782" s="28"/>
+      <c r="D782" s="36"/>
+      <c r="G782" s="38"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="26"/>
-      <c r="G783" s="28"/>
+      <c r="D783" s="36"/>
+      <c r="G783" s="38"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="26"/>
-      <c r="G784" s="28"/>
+      <c r="D784" s="36"/>
+      <c r="G784" s="38"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="26"/>
-      <c r="G785" s="28"/>
+      <c r="D785" s="36"/>
+      <c r="G785" s="38"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="26"/>
-      <c r="G786" s="28"/>
+      <c r="D786" s="36"/>
+      <c r="G786" s="38"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="26"/>
-      <c r="G787" s="28"/>
+      <c r="D787" s="36"/>
+      <c r="G787" s="38"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="26"/>
-      <c r="G788" s="28"/>
+      <c r="D788" s="36"/>
+      <c r="G788" s="38"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="26"/>
-      <c r="G789" s="28"/>
+      <c r="D789" s="36"/>
+      <c r="G789" s="38"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="26"/>
-      <c r="G790" s="28"/>
+      <c r="D790" s="36"/>
+      <c r="G790" s="38"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="26"/>
-      <c r="G791" s="28"/>
+      <c r="D791" s="36"/>
+      <c r="G791" s="38"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="26"/>
-      <c r="G792" s="28"/>
+      <c r="D792" s="36"/>
+      <c r="G792" s="38"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="26"/>
-      <c r="G793" s="28"/>
+      <c r="D793" s="36"/>
+      <c r="G793" s="38"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="26"/>
-      <c r="G794" s="28"/>
+      <c r="D794" s="36"/>
+      <c r="G794" s="38"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="26"/>
-      <c r="G795" s="28"/>
+      <c r="D795" s="36"/>
+      <c r="G795" s="38"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="26"/>
-      <c r="G796" s="28"/>
+      <c r="D796" s="36"/>
+      <c r="G796" s="38"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="26"/>
-      <c r="G797" s="28"/>
+      <c r="D797" s="36"/>
+      <c r="G797" s="38"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="26"/>
-      <c r="G798" s="28"/>
+      <c r="D798" s="36"/>
+      <c r="G798" s="38"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="26"/>
-      <c r="G799" s="28"/>
+      <c r="D799" s="36"/>
+      <c r="G799" s="38"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="26"/>
-      <c r="G800" s="28"/>
+      <c r="D800" s="36"/>
+      <c r="G800" s="38"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="26"/>
-      <c r="G801" s="28"/>
+      <c r="D801" s="36"/>
+      <c r="G801" s="38"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="26"/>
-      <c r="G802" s="28"/>
+      <c r="D802" s="36"/>
+      <c r="G802" s="38"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="26"/>
-      <c r="G803" s="28"/>
+      <c r="D803" s="36"/>
+      <c r="G803" s="38"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="26"/>
-      <c r="G804" s="28"/>
+      <c r="D804" s="36"/>
+      <c r="G804" s="38"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="26"/>
-      <c r="G805" s="28"/>
+      <c r="D805" s="36"/>
+      <c r="G805" s="38"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="26"/>
-      <c r="G806" s="28"/>
+      <c r="D806" s="36"/>
+      <c r="G806" s="38"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="26"/>
-      <c r="G807" s="28"/>
+      <c r="D807" s="36"/>
+      <c r="G807" s="38"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="26"/>
-      <c r="G808" s="28"/>
+      <c r="D808" s="36"/>
+      <c r="G808" s="38"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="26"/>
-      <c r="G809" s="28"/>
+      <c r="D809" s="36"/>
+      <c r="G809" s="38"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="26"/>
-      <c r="G810" s="28"/>
+      <c r="D810" s="36"/>
+      <c r="G810" s="38"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="26"/>
-      <c r="G811" s="28"/>
+      <c r="D811" s="36"/>
+      <c r="G811" s="38"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="26"/>
-      <c r="G812" s="28"/>
+      <c r="D812" s="36"/>
+      <c r="G812" s="38"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="26"/>
-      <c r="G813" s="28"/>
+      <c r="D813" s="36"/>
+      <c r="G813" s="38"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="26"/>
-      <c r="G814" s="28"/>
+      <c r="D814" s="36"/>
+      <c r="G814" s="38"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="26"/>
-      <c r="G815" s="28"/>
+      <c r="D815" s="36"/>
+      <c r="G815" s="38"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="26"/>
-      <c r="G816" s="28"/>
+      <c r="D816" s="36"/>
+      <c r="G816" s="38"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="26"/>
-      <c r="G817" s="28"/>
+      <c r="D817" s="36"/>
+      <c r="G817" s="38"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="26"/>
-      <c r="G818" s="28"/>
+      <c r="D818" s="36"/>
+      <c r="G818" s="38"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="26"/>
-      <c r="G819" s="28"/>
+      <c r="D819" s="36"/>
+      <c r="G819" s="38"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="26"/>
-      <c r="G820" s="28"/>
+      <c r="D820" s="36"/>
+      <c r="G820" s="38"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="26"/>
-      <c r="G821" s="28"/>
+      <c r="D821" s="36"/>
+      <c r="G821" s="38"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="26"/>
-      <c r="G822" s="28"/>
+      <c r="D822" s="36"/>
+      <c r="G822" s="38"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="26"/>
-      <c r="G823" s="28"/>
+      <c r="D823" s="36"/>
+      <c r="G823" s="38"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="26"/>
-      <c r="G824" s="28"/>
+      <c r="D824" s="36"/>
+      <c r="G824" s="38"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="26"/>
-      <c r="G825" s="28"/>
+      <c r="D825" s="36"/>
+      <c r="G825" s="38"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="26"/>
-      <c r="G826" s="28"/>
+      <c r="D826" s="36"/>
+      <c r="G826" s="38"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="26"/>
-      <c r="G827" s="28"/>
+      <c r="D827" s="36"/>
+      <c r="G827" s="38"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="26"/>
-      <c r="G828" s="28"/>
+      <c r="D828" s="36"/>
+      <c r="G828" s="38"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="26"/>
-      <c r="G829" s="28"/>
+      <c r="D829" s="36"/>
+      <c r="G829" s="38"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="26"/>
-      <c r="G830" s="28"/>
+      <c r="D830" s="36"/>
+      <c r="G830" s="38"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="26"/>
-      <c r="G831" s="28"/>
+      <c r="D831" s="36"/>
+      <c r="G831" s="38"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="26"/>
-      <c r="G832" s="28"/>
+      <c r="D832" s="36"/>
+      <c r="G832" s="38"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="26"/>
-      <c r="G833" s="28"/>
+      <c r="D833" s="36"/>
+      <c r="G833" s="38"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="26"/>
-      <c r="G834" s="28"/>
+      <c r="D834" s="36"/>
+      <c r="G834" s="38"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="26"/>
-      <c r="G835" s="28"/>
+      <c r="D835" s="36"/>
+      <c r="G835" s="38"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="26"/>
-      <c r="G836" s="28"/>
+      <c r="D836" s="36"/>
+      <c r="G836" s="38"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="26"/>
-      <c r="G837" s="28"/>
+      <c r="D837" s="36"/>
+      <c r="G837" s="38"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="26"/>
-      <c r="G838" s="28"/>
+      <c r="D838" s="36"/>
+      <c r="G838" s="38"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="26"/>
-      <c r="G839" s="28"/>
+      <c r="D839" s="36"/>
+      <c r="G839" s="38"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="26"/>
-      <c r="G840" s="28"/>
+      <c r="D840" s="36"/>
+      <c r="G840" s="38"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="26"/>
-      <c r="G841" s="28"/>
+      <c r="D841" s="36"/>
+      <c r="G841" s="38"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="26"/>
-      <c r="G842" s="28"/>
+      <c r="D842" s="36"/>
+      <c r="G842" s="38"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="26"/>
-      <c r="G843" s="28"/>
+      <c r="D843" s="36"/>
+      <c r="G843" s="38"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="26"/>
-      <c r="G844" s="28"/>
+      <c r="D844" s="36"/>
+      <c r="G844" s="38"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="26"/>
-      <c r="G845" s="28"/>
+      <c r="D845" s="36"/>
+      <c r="G845" s="38"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="26"/>
-      <c r="G846" s="28"/>
+      <c r="D846" s="36"/>
+      <c r="G846" s="38"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="26"/>
-      <c r="G847" s="28"/>
+      <c r="D847" s="36"/>
+      <c r="G847" s="38"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="26"/>
-      <c r="G848" s="28"/>
+      <c r="D848" s="36"/>
+      <c r="G848" s="38"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="26"/>
-      <c r="G849" s="28"/>
+      <c r="D849" s="36"/>
+      <c r="G849" s="38"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="26"/>
-      <c r="G850" s="28"/>
+      <c r="D850" s="36"/>
+      <c r="G850" s="38"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="26"/>
-      <c r="G851" s="28"/>
+      <c r="D851" s="36"/>
+      <c r="G851" s="38"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="26"/>
-      <c r="G852" s="28"/>
+      <c r="D852" s="36"/>
+      <c r="G852" s="38"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="26"/>
-      <c r="G853" s="28"/>
+      <c r="D853" s="36"/>
+      <c r="G853" s="38"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="26"/>
-      <c r="G854" s="28"/>
+      <c r="D854" s="36"/>
+      <c r="G854" s="38"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="26"/>
-      <c r="G855" s="28"/>
+      <c r="D855" s="36"/>
+      <c r="G855" s="38"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="26"/>
-      <c r="G856" s="28"/>
+      <c r="D856" s="36"/>
+      <c r="G856" s="38"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="26"/>
-      <c r="G857" s="28"/>
+      <c r="D857" s="36"/>
+      <c r="G857" s="38"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="26"/>
-      <c r="G858" s="28"/>
+      <c r="D858" s="36"/>
+      <c r="G858" s="38"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="26"/>
-      <c r="G859" s="28"/>
+      <c r="D859" s="36"/>
+      <c r="G859" s="38"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="26"/>
-      <c r="G860" s="28"/>
+      <c r="D860" s="36"/>
+      <c r="G860" s="38"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="26"/>
-      <c r="G861" s="28"/>
+      <c r="D861" s="36"/>
+      <c r="G861" s="38"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="26"/>
-      <c r="G862" s="28"/>
+      <c r="D862" s="36"/>
+      <c r="G862" s="38"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="26"/>
-      <c r="G863" s="28"/>
+      <c r="D863" s="36"/>
+      <c r="G863" s="38"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="26"/>
-      <c r="G864" s="28"/>
+      <c r="D864" s="36"/>
+      <c r="G864" s="38"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="26"/>
-      <c r="G865" s="28"/>
+      <c r="D865" s="36"/>
+      <c r="G865" s="38"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="26"/>
-      <c r="G866" s="28"/>
+      <c r="D866" s="36"/>
+      <c r="G866" s="38"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="26"/>
-      <c r="G867" s="28"/>
+      <c r="D867" s="36"/>
+      <c r="G867" s="38"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="26"/>
-      <c r="G868" s="28"/>
+      <c r="D868" s="36"/>
+      <c r="G868" s="38"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="26"/>
-      <c r="G869" s="28"/>
+      <c r="D869" s="36"/>
+      <c r="G869" s="38"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="26"/>
-      <c r="G870" s="28"/>
+      <c r="D870" s="36"/>
+      <c r="G870" s="38"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="26"/>
-      <c r="G871" s="28"/>
+      <c r="D871" s="36"/>
+      <c r="G871" s="38"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="26"/>
-      <c r="G872" s="28"/>
+      <c r="D872" s="36"/>
+      <c r="G872" s="38"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="26"/>
-      <c r="G873" s="28"/>
+      <c r="D873" s="36"/>
+      <c r="G873" s="38"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="26"/>
-      <c r="G874" s="28"/>
+      <c r="D874" s="36"/>
+      <c r="G874" s="38"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="26"/>
-      <c r="G875" s="28"/>
+      <c r="D875" s="36"/>
+      <c r="G875" s="38"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="26"/>
-      <c r="G876" s="28"/>
+      <c r="D876" s="36"/>
+      <c r="G876" s="38"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="26"/>
-      <c r="G877" s="28"/>
+      <c r="D877" s="36"/>
+      <c r="G877" s="38"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="26"/>
-      <c r="G878" s="28"/>
+      <c r="D878" s="36"/>
+      <c r="G878" s="38"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="26"/>
-      <c r="G879" s="28"/>
+      <c r="D879" s="36"/>
+      <c r="G879" s="38"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="26"/>
-      <c r="G880" s="28"/>
+      <c r="D880" s="36"/>
+      <c r="G880" s="38"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="26"/>
-      <c r="G881" s="28"/>
+      <c r="D881" s="36"/>
+      <c r="G881" s="38"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="26"/>
-      <c r="G882" s="28"/>
+      <c r="D882" s="36"/>
+      <c r="G882" s="38"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="26"/>
-      <c r="G883" s="28"/>
+      <c r="D883" s="36"/>
+      <c r="G883" s="38"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="26"/>
-      <c r="G884" s="28"/>
+      <c r="D884" s="36"/>
+      <c r="G884" s="38"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="26"/>
-      <c r="G885" s="28"/>
+      <c r="D885" s="36"/>
+      <c r="G885" s="38"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="26"/>
-      <c r="G886" s="28"/>
+      <c r="D886" s="36"/>
+      <c r="G886" s="38"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="26"/>
-      <c r="G887" s="28"/>
+      <c r="D887" s="36"/>
+      <c r="G887" s="38"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="26"/>
-      <c r="G888" s="28"/>
+      <c r="D888" s="36"/>
+      <c r="G888" s="38"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="26"/>
-      <c r="G889" s="28"/>
+      <c r="D889" s="36"/>
+      <c r="G889" s="38"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="26"/>
-      <c r="G890" s="28"/>
+      <c r="D890" s="36"/>
+      <c r="G890" s="38"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="26"/>
-      <c r="G891" s="28"/>
+      <c r="D891" s="36"/>
+      <c r="G891" s="38"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="26"/>
-      <c r="G892" s="28"/>
+      <c r="D892" s="36"/>
+      <c r="G892" s="38"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="26"/>
-      <c r="G893" s="28"/>
+      <c r="D893" s="36"/>
+      <c r="G893" s="38"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="26"/>
-      <c r="G894" s="28"/>
+      <c r="D894" s="36"/>
+      <c r="G894" s="38"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="26"/>
-      <c r="G895" s="28"/>
+      <c r="D895" s="36"/>
+      <c r="G895" s="38"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="26"/>
-      <c r="G896" s="28"/>
+      <c r="D896" s="36"/>
+      <c r="G896" s="38"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="26"/>
-      <c r="G897" s="28"/>
+      <c r="D897" s="36"/>
+      <c r="G897" s="38"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="26"/>
-      <c r="G898" s="28"/>
+      <c r="D898" s="36"/>
+      <c r="G898" s="38"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="26"/>
-      <c r="G899" s="28"/>
+      <c r="D899" s="36"/>
+      <c r="G899" s="38"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="26"/>
-      <c r="G900" s="28"/>
+      <c r="D900" s="36"/>
+      <c r="G900" s="38"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="26"/>
-      <c r="G901" s="28"/>
+      <c r="D901" s="36"/>
+      <c r="G901" s="38"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="26"/>
-      <c r="G902" s="28"/>
+      <c r="D902" s="36"/>
+      <c r="G902" s="38"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="26"/>
-      <c r="G903" s="28"/>
+      <c r="D903" s="36"/>
+      <c r="G903" s="38"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="26"/>
-      <c r="G904" s="28"/>
+      <c r="D904" s="36"/>
+      <c r="G904" s="38"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="26"/>
-      <c r="G905" s="28"/>
+      <c r="D905" s="36"/>
+      <c r="G905" s="38"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="26"/>
-      <c r="G906" s="28"/>
+      <c r="D906" s="36"/>
+      <c r="G906" s="38"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="26"/>
-      <c r="G907" s="28"/>
+      <c r="D907" s="36"/>
+      <c r="G907" s="38"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="26"/>
-      <c r="G908" s="28"/>
+      <c r="D908" s="36"/>
+      <c r="G908" s="38"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="26"/>
-      <c r="G909" s="28"/>
+      <c r="D909" s="36"/>
+      <c r="G909" s="38"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="26"/>
-      <c r="G910" s="28"/>
+      <c r="D910" s="36"/>
+      <c r="G910" s="38"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="26"/>
-      <c r="G911" s="28"/>
+      <c r="D911" s="36"/>
+      <c r="G911" s="38"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="26"/>
-      <c r="G912" s="28"/>
+      <c r="D912" s="36"/>
+      <c r="G912" s="38"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="26"/>
-      <c r="G913" s="28"/>
+      <c r="D913" s="36"/>
+      <c r="G913" s="38"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="26"/>
-      <c r="G914" s="28"/>
+      <c r="D914" s="36"/>
+      <c r="G914" s="38"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="26"/>
-      <c r="G915" s="28"/>
+      <c r="D915" s="36"/>
+      <c r="G915" s="38"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="26"/>
-      <c r="G916" s="28"/>
+      <c r="D916" s="36"/>
+      <c r="G916" s="38"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="26"/>
-      <c r="G917" s="28"/>
+      <c r="D917" s="36"/>
+      <c r="G917" s="38"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="26"/>
-      <c r="G918" s="28"/>
+      <c r="D918" s="36"/>
+      <c r="G918" s="38"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="26"/>
-      <c r="G919" s="28"/>
+      <c r="D919" s="36"/>
+      <c r="G919" s="38"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="26"/>
-      <c r="G920" s="28"/>
+      <c r="D920" s="36"/>
+      <c r="G920" s="38"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="26"/>
-      <c r="G921" s="28"/>
+      <c r="D921" s="36"/>
+      <c r="G921" s="38"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="26"/>
-      <c r="G922" s="28"/>
+      <c r="D922" s="36"/>
+      <c r="G922" s="38"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="26"/>
-      <c r="G923" s="28"/>
+      <c r="D923" s="36"/>
+      <c r="G923" s="38"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="26"/>
-      <c r="G924" s="28"/>
+      <c r="D924" s="36"/>
+      <c r="G924" s="38"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="26"/>
-      <c r="G925" s="28"/>
+      <c r="D925" s="36"/>
+      <c r="G925" s="38"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="26"/>
-      <c r="G926" s="28"/>
+      <c r="D926" s="36"/>
+      <c r="G926" s="38"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="26"/>
-      <c r="G927" s="28"/>
+      <c r="D927" s="36"/>
+      <c r="G927" s="38"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="26"/>
-      <c r="G928" s="28"/>
+      <c r="D928" s="36"/>
+      <c r="G928" s="38"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="26"/>
-      <c r="G929" s="28"/>
+      <c r="D929" s="36"/>
+      <c r="G929" s="38"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="26"/>
-      <c r="G930" s="28"/>
+      <c r="D930" s="36"/>
+      <c r="G930" s="38"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="26"/>
-      <c r="G931" s="28"/>
+      <c r="D931" s="36"/>
+      <c r="G931" s="38"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="26"/>
-      <c r="G932" s="28"/>
+      <c r="D932" s="36"/>
+      <c r="G932" s="38"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="26"/>
-      <c r="G933" s="28"/>
+      <c r="D933" s="36"/>
+      <c r="G933" s="38"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="26"/>
-      <c r="G934" s="28"/>
+      <c r="D934" s="36"/>
+      <c r="G934" s="38"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="26"/>
-      <c r="G935" s="28"/>
+      <c r="D935" s="36"/>
+      <c r="G935" s="38"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="26"/>
-      <c r="G936" s="28"/>
+      <c r="D936" s="36"/>
+      <c r="G936" s="38"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="26"/>
-      <c r="G937" s="28"/>
+      <c r="D937" s="36"/>
+      <c r="G937" s="38"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="26"/>
-      <c r="G938" s="28"/>
+      <c r="D938" s="36"/>
+      <c r="G938" s="38"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="26"/>
-      <c r="G939" s="28"/>
+      <c r="D939" s="36"/>
+      <c r="G939" s="38"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="26"/>
-      <c r="G940" s="28"/>
+      <c r="D940" s="36"/>
+      <c r="G940" s="38"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="26"/>
-      <c r="G941" s="28"/>
+      <c r="D941" s="36"/>
+      <c r="G941" s="38"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="26"/>
-      <c r="G942" s="28"/>
+      <c r="D942" s="36"/>
+      <c r="G942" s="38"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="26"/>
-      <c r="G943" s="28"/>
+      <c r="D943" s="36"/>
+      <c r="G943" s="38"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="26"/>
-      <c r="G944" s="28"/>
+      <c r="D944" s="36"/>
+      <c r="G944" s="38"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="26"/>
-      <c r="G945" s="28"/>
+      <c r="D945" s="36"/>
+      <c r="G945" s="38"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="26"/>
-      <c r="G946" s="28"/>
+      <c r="D946" s="36"/>
+      <c r="G946" s="38"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="26"/>
-      <c r="G947" s="28"/>
+      <c r="D947" s="36"/>
+      <c r="G947" s="38"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="26"/>
-      <c r="G948" s="28"/>
+      <c r="D948" s="36"/>
+      <c r="G948" s="38"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="26"/>
-      <c r="G949" s="28"/>
+      <c r="D949" s="36"/>
+      <c r="G949" s="38"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="26"/>
-      <c r="G950" s="28"/>
+      <c r="D950" s="36"/>
+      <c r="G950" s="38"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="26"/>
-      <c r="G951" s="28"/>
+      <c r="D951" s="36"/>
+      <c r="G951" s="38"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="26"/>
-      <c r="G952" s="28"/>
+      <c r="D952" s="36"/>
+      <c r="G952" s="38"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="26"/>
-      <c r="G953" s="28"/>
+      <c r="D953" s="36"/>
+      <c r="G953" s="38"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="26"/>
-      <c r="G954" s="28"/>
+      <c r="D954" s="36"/>
+      <c r="G954" s="38"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="26"/>
-      <c r="G955" s="28"/>
+      <c r="D955" s="36"/>
+      <c r="G955" s="38"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="26"/>
-      <c r="G956" s="28"/>
+      <c r="D956" s="36"/>
+      <c r="G956" s="38"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="26"/>
-      <c r="G957" s="28"/>
+      <c r="D957" s="36"/>
+      <c r="G957" s="38"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="26"/>
-      <c r="G958" s="28"/>
+      <c r="D958" s="36"/>
+      <c r="G958" s="38"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="26"/>
-      <c r="G959" s="28"/>
+      <c r="D959" s="36"/>
+      <c r="G959" s="38"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="26"/>
-      <c r="G960" s="28"/>
+      <c r="D960" s="36"/>
+      <c r="G960" s="38"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="26"/>
-      <c r="G961" s="28"/>
+      <c r="D961" s="36"/>
+      <c r="G961" s="38"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="26"/>
-      <c r="G962" s="28"/>
+      <c r="D962" s="36"/>
+      <c r="G962" s="38"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="26"/>
-      <c r="G963" s="28"/>
+      <c r="D963" s="36"/>
+      <c r="G963" s="38"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="26"/>
-      <c r="G964" s="28"/>
+      <c r="D964" s="36"/>
+      <c r="G964" s="38"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="26"/>
-      <c r="G965" s="28"/>
+      <c r="D965" s="36"/>
+      <c r="G965" s="38"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="26"/>
-      <c r="G966" s="28"/>
+      <c r="D966" s="36"/>
+      <c r="G966" s="38"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="26"/>
-      <c r="G967" s="28"/>
+      <c r="D967" s="36"/>
+      <c r="G967" s="38"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="26"/>
-      <c r="G968" s="28"/>
+      <c r="D968" s="36"/>
+      <c r="G968" s="38"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="26"/>
-      <c r="G969" s="28"/>
+      <c r="D969" s="36"/>
+      <c r="G969" s="38"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="26"/>
-      <c r="G970" s="28"/>
+      <c r="D970" s="36"/>
+      <c r="G970" s="38"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="26"/>
-      <c r="G971" s="28"/>
+      <c r="D971" s="36"/>
+      <c r="G971" s="38"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="26"/>
-      <c r="G972" s="28"/>
+      <c r="D972" s="36"/>
+      <c r="G972" s="38"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="26"/>
-      <c r="G973" s="28"/>
+      <c r="D973" s="36"/>
+      <c r="G973" s="38"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="26"/>
-      <c r="G974" s="28"/>
+      <c r="D974" s="36"/>
+      <c r="G974" s="38"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="26"/>
-      <c r="G975" s="28"/>
+      <c r="D975" s="36"/>
+      <c r="G975" s="38"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="26"/>
-      <c r="G976" s="28"/>
+      <c r="D976" s="36"/>
+      <c r="G976" s="38"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="26"/>
-      <c r="G977" s="28"/>
+      <c r="D977" s="36"/>
+      <c r="G977" s="38"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="26"/>
-      <c r="G978" s="28"/>
+      <c r="D978" s="36"/>
+      <c r="G978" s="38"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="26"/>
-      <c r="G979" s="28"/>
+      <c r="D979" s="36"/>
+      <c r="G979" s="38"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="26"/>
-      <c r="G980" s="28"/>
+      <c r="D980" s="36"/>
+      <c r="G980" s="38"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="26"/>
-      <c r="G981" s="28"/>
+      <c r="D981" s="36"/>
+      <c r="G981" s="38"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="26"/>
-      <c r="G982" s="28"/>
+      <c r="D982" s="36"/>
+      <c r="G982" s="38"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="26"/>
-      <c r="G983" s="28"/>
+      <c r="D983" s="36"/>
+      <c r="G983" s="38"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="26"/>
-      <c r="G984" s="28"/>
+      <c r="D984" s="36"/>
+      <c r="G984" s="38"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="26"/>
-      <c r="G985" s="28"/>
+      <c r="D985" s="36"/>
+      <c r="G985" s="38"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="26"/>
-      <c r="G986" s="28"/>
+      <c r="D986" s="36"/>
+      <c r="G986" s="38"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="26"/>
-      <c r="G987" s="28"/>
+      <c r="D987" s="36"/>
+      <c r="G987" s="38"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="26"/>
-      <c r="G988" s="28"/>
+      <c r="D988" s="36"/>
+      <c r="G988" s="38"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="26"/>
-      <c r="G989" s="28"/>
+      <c r="D989" s="36"/>
+      <c r="G989" s="38"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="26"/>
-      <c r="G990" s="28"/>
+      <c r="D990" s="36"/>
+      <c r="G990" s="38"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="26"/>
-      <c r="G991" s="28"/>
+      <c r="D991" s="36"/>
+      <c r="G991" s="38"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="26"/>
-      <c r="G992" s="28"/>
+      <c r="D992" s="36"/>
+      <c r="G992" s="38"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="26"/>
-      <c r="G993" s="28"/>
+      <c r="D993" s="36"/>
+      <c r="G993" s="38"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="26"/>
-      <c r="G994" s="28"/>
+      <c r="D994" s="36"/>
+      <c r="G994" s="38"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="26"/>
-      <c r="G995" s="28"/>
+      <c r="D995" s="36"/>
+      <c r="G995" s="38"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="26"/>
-      <c r="G996" s="28"/>
+      <c r="D996" s="36"/>
+      <c r="G996" s="38"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="26"/>
-      <c r="G997" s="28"/>
+      <c r="D997" s="36"/>
+      <c r="G997" s="38"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="26"/>
-      <c r="G998" s="28"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="26"/>
-      <c r="G999" s="28"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="26"/>
-      <c r="G1000" s="28"/>
+      <c r="D998" s="36"/>
+      <c r="G998" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
